--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_18.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_18.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>523519.8789449477</v>
+        <v>529365.5754034064</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17965173.4684127</v>
+        <v>16722200.63474373</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3370884.082190458</v>
+        <v>2152646.407911491</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6694829.616425887</v>
+        <v>7233451.105821507</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
         <v>431.5506869772999</v>
@@ -668,16 +670,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>34.68977620425586</v>
+        <v>256.1220443490923</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,16 +718,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -862,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>34.71811217257873</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>81.01098805494614</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -896,16 +898,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>178.5822054820732</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>356.1326645969662</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -914,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -1069,10 +1071,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>18.05677735225706</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>67.4289457920829</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1133,10 +1135,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
         <v>429.4369973932878</v>
@@ -1145,13 +1147,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>295.8587405627169</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1190,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>51.02685178887896</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
@@ -1291,7 +1293,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>126.5517316786948</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
@@ -1303,13 +1305,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>119.0286976413981</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1436,7 +1438,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>77.37140158241019</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1540,13 +1542,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>3.139541480022982</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>67.42894579208244</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1607,25 +1609,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>366.3049573904928</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1664,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>51.02685178887896</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1777,13 +1779,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>3.139541480022982</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>67.42894579208244</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1841,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
@@ -1856,13 +1858,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>358.9045347772637</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -2011,16 +2013,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>14.14416275345373</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6486707394257</v>
+        <v>67.42894579208244</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2254,7 +2256,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2722,13 +2724,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>39.57637241135472</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225841</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2947,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>152.5168019860612</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
         <v>164.2192128704925</v>
@@ -2965,10 +2967,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3047,7 +3049,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I32" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3199,7 +3201,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>24.34318456170439</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3235,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3433,16 +3435,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>14.14416275345333</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>130.6556207749485</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
         <v>217.8665548556918</v>
@@ -3673,10 +3675,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>3.139541480022588</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>103.8284742946031</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3755,10 +3757,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791325486</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>337.6783262792255</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
@@ -3910,10 +3912,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>43.48898701015855</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3983,19 +3985,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>375.6587772975518</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4034,10 +4036,10 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>398.1408052170389</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
@@ -4135,7 +4137,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>10.0402736571996</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1363.654641054971</v>
+        <v>2048.221573682272</v>
       </c>
       <c r="C2" t="n">
-        <v>1363.654641054971</v>
+        <v>1610.079100865695</v>
       </c>
       <c r="D2" t="n">
-        <v>927.7448562294157</v>
+        <v>1174.16931604014</v>
       </c>
       <c r="E2" t="n">
-        <v>493.9701113877109</v>
+        <v>740.3945711984347</v>
       </c>
       <c r="F2" t="n">
-        <v>493.9701113877109</v>
+        <v>312.5271416076425</v>
       </c>
       <c r="G2" t="n">
-        <v>92.57228001097479</v>
+        <v>312.5271416076425</v>
       </c>
       <c r="H2" t="n">
-        <v>57.53210202687796</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I2" t="n">
-        <v>57.53210202687796</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J2" t="n">
-        <v>492.7867894797959</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K2" t="n">
-        <v>1204.746552062411</v>
+        <v>714.241271070407</v>
       </c>
       <c r="L2" t="n">
-        <v>1204.746552062411</v>
+        <v>1375.081325612186</v>
       </c>
       <c r="M2" t="n">
-        <v>1448.992488049632</v>
+        <v>1375.081325612186</v>
       </c>
       <c r="N2" t="n">
-        <v>1448.992488049632</v>
+        <v>1375.081325612186</v>
       </c>
       <c r="O2" t="n">
-        <v>1448.992488049632</v>
+        <v>2035.921380153964</v>
       </c>
       <c r="P2" t="n">
-        <v>2160.952250632246</v>
+        <v>2123.562040472834</v>
       </c>
       <c r="Q2" t="n">
-        <v>2707.451036590841</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R2" t="n">
-        <v>2876.605101343898</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2876.605101343898</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>2876.605101343898</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U2" t="n">
-        <v>2617.382798660915</v>
+        <v>2410.838523748445</v>
       </c>
       <c r="V2" t="n">
-        <v>2617.382798660915</v>
+        <v>2048.221573682272</v>
       </c>
       <c r="W2" t="n">
-        <v>2617.382798660915</v>
+        <v>2048.221573682272</v>
       </c>
       <c r="X2" t="n">
-        <v>2198.240335240226</v>
+        <v>2048.221573682272</v>
       </c>
       <c r="Y2" t="n">
-        <v>1789.954211539879</v>
+        <v>2048.221573682272</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>563.7038470181708</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C3" t="n">
-        <v>457.247385854813</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D3" t="n">
-        <v>362.1570970013663</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E3" t="n">
-        <v>268.03668232832</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F3" t="n">
-        <v>184.6528439444816</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G3" t="n">
-        <v>99.26775421066549</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>57.53210202687796</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I3" t="n">
-        <v>83.59577518733556</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J3" t="n">
-        <v>408.1541001535479</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K3" t="n">
-        <v>408.1541001535479</v>
+        <v>714.241271070407</v>
       </c>
       <c r="L3" t="n">
-        <v>408.1541001535479</v>
+        <v>714.241271070407</v>
       </c>
       <c r="M3" t="n">
-        <v>408.1541001535479</v>
+        <v>714.241271070407</v>
       </c>
       <c r="N3" t="n">
-        <v>408.1541001535479</v>
+        <v>714.241271070407</v>
       </c>
       <c r="O3" t="n">
-        <v>408.1541001535479</v>
+        <v>714.241271070407</v>
       </c>
       <c r="P3" t="n">
-        <v>1062.860146779272</v>
+        <v>1375.081325612186</v>
       </c>
       <c r="Q3" t="n">
-        <v>1603.599085411347</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="R3" t="n">
-        <v>1720.771863505687</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S3" t="n">
-        <v>1657.31642595407</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T3" t="n">
-        <v>1527.137782284672</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U3" t="n">
-        <v>1350.80123528464</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V3" t="n">
-        <v>1151.683717346639</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W3" t="n">
-        <v>966.3609630798333</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X3" t="n">
-        <v>811.4935273187132</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y3" t="n">
-        <v>685.0077480979339</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1136.590262638759</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C4" t="n">
-        <v>964.0285511219844</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D4" t="n">
-        <v>798.1505583235071</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E4" t="n">
-        <v>628.3925545742443</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F4" t="n">
-        <v>451.6855005360005</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G4" t="n">
-        <v>286.0942255618281</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H4" t="n">
-        <v>146.1920512522026</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
-        <v>57.53210202687796</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J4" t="n">
-        <v>144.1117871915678</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K4" t="n">
-        <v>418.8702417627034</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L4" t="n">
-        <v>837.0801235306644</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M4" t="n">
-        <v>1296.563990711577</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1738.822793869222</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O4" t="n">
-        <v>2158.492043095003</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P4" t="n">
-        <v>2505.998937065345</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q4" t="n">
-        <v>2674.191711929678</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>2652.77389063505</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S4" t="n">
-        <v>2493.532521933046</v>
+        <v>2634.992026257106</v>
       </c>
       <c r="T4" t="n">
-        <v>2247.653075511501</v>
+        <v>2389.112579835562</v>
       </c>
       <c r="U4" t="n">
-        <v>1969.220074764607</v>
+        <v>2110.679579088667</v>
       </c>
       <c r="V4" t="n">
-        <v>1682.264566635037</v>
+        <v>1823.724070959097</v>
       </c>
       <c r="W4" t="n">
-        <v>1410.238162221329</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="X4" t="n">
-        <v>1410.238162221329</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y4" t="n">
-        <v>1328.408881357747</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>855.4045390828145</v>
+        <v>1531.756031303049</v>
       </c>
       <c r="C5" t="n">
-        <v>417.2620662662378</v>
+        <v>1351.369965159541</v>
       </c>
       <c r="D5" t="n">
-        <v>417.2620662662378</v>
+        <v>915.4601803339856</v>
       </c>
       <c r="E5" t="n">
-        <v>417.2620662662378</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F5" t="n">
-        <v>57.53210202687796</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="G5" t="n">
-        <v>57.53210202687796</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="H5" t="n">
-        <v>57.53210202687796</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I5" t="n">
-        <v>57.53210202687796</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J5" t="n">
-        <v>57.53210202687796</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>57.53210202687796</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>57.53210202687796</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M5" t="n">
-        <v>57.53210202687796</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N5" t="n">
-        <v>737.032725467017</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O5" t="n">
-        <v>1448.992488049632</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P5" t="n">
-        <v>2160.952250632246</v>
+        <v>2123.562040472834</v>
       </c>
       <c r="Q5" t="n">
-        <v>2707.451036590841</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R5" t="n">
-        <v>2876.605101343898</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2876.605101343898</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>2876.605101343898</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="U5" t="n">
-        <v>2876.605101343898</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="V5" t="n">
-        <v>2513.988151277725</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="W5" t="n">
-        <v>2109.132696688758</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="X5" t="n">
-        <v>1689.990233268069</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="Y5" t="n">
-        <v>1281.704109567722</v>
+        <v>1958.055601787957</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>563.7038470181708</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>457.247385854813</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>362.1570970013663</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>268.03668232832</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>184.6528439444816</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>99.26775421066549</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>57.53210202687796</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I6" t="n">
-        <v>57.53210202687796</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>57.53210202687796</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>57.53210202687796</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L6" t="n">
-        <v>57.53210202687796</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M6" t="n">
-        <v>769.4918646094927</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N6" t="n">
-        <v>1481.451627192107</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O6" t="n">
-        <v>1720.771863505687</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P6" t="n">
-        <v>1720.771863505687</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1720.771863505687</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1720.771863505687</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1657.31642595407</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1527.137782284672</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1350.80123528464</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1151.683717346639</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>966.3609630798333</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>811.4935273187132</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>685.0077480979339</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1136.590262638759</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C7" t="n">
-        <v>964.0285511219844</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D7" t="n">
-        <v>798.1505583235071</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E7" t="n">
-        <v>628.3925545742443</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F7" t="n">
-        <v>451.6855005360005</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G7" t="n">
-        <v>286.0942255618281</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H7" t="n">
-        <v>146.1920512522026</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I7" t="n">
-        <v>57.53210202687796</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J7" t="n">
-        <v>144.1117871915678</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>418.8702417627034</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>837.0801235306644</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>1296.563990711577</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1738.822793869222</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>2158.492043095003</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>2505.998937065345</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>2674.191711929678</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>2674.191711929678</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>2674.191711929678</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T7" t="n">
-        <v>2428.312265508133</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U7" t="n">
-        <v>2360.202219253504</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V7" t="n">
-        <v>2073.246711123934</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W7" t="n">
-        <v>1801.220306710226</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X7" t="n">
-        <v>1555.828552043638</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y7" t="n">
-        <v>1328.408881357747</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1218.021489148988</v>
+        <v>2511.062984811828</v>
       </c>
       <c r="C8" t="n">
-        <v>1218.021489148988</v>
+        <v>2072.920511995252</v>
       </c>
       <c r="D8" t="n">
-        <v>1218.021489148988</v>
+        <v>1637.010727169696</v>
       </c>
       <c r="E8" t="n">
-        <v>784.2467443072833</v>
+        <v>1203.235982327991</v>
       </c>
       <c r="F8" t="n">
-        <v>356.379314716491</v>
+        <v>775.368552737199</v>
       </c>
       <c r="G8" t="n">
-        <v>57.53210202687796</v>
+        <v>373.9707213604629</v>
       </c>
       <c r="H8" t="n">
-        <v>57.53210202687796</v>
+        <v>84.84056680367918</v>
       </c>
       <c r="I8" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="J8" t="n">
-        <v>492.7867894797959</v>
+        <v>519.6784648837371</v>
       </c>
       <c r="K8" t="n">
-        <v>492.7867894797959</v>
+        <v>1354.028756841915</v>
       </c>
       <c r="L8" t="n">
-        <v>492.7867894797959</v>
+        <v>1354.028756841915</v>
       </c>
       <c r="M8" t="n">
-        <v>492.7867894797959</v>
+        <v>2398.773002548303</v>
       </c>
       <c r="N8" t="n">
-        <v>737.032725467017</v>
+        <v>2398.773002548303</v>
       </c>
       <c r="O8" t="n">
-        <v>1448.992488049632</v>
+        <v>2677.226145995911</v>
       </c>
       <c r="P8" t="n">
-        <v>2160.952250632246</v>
+        <v>3505.536020829308</v>
       </c>
       <c r="Q8" t="n">
-        <v>2707.451036590841</v>
+        <v>4052.034806787903</v>
       </c>
       <c r="R8" t="n">
-        <v>2876.605101343898</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="S8" t="n">
-        <v>2876.605101343898</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="T8" t="n">
-        <v>2876.605101343898</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="U8" t="n">
-        <v>2876.605101343898</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="V8" t="n">
-        <v>2876.605101343898</v>
+        <v>4169.646597006738</v>
       </c>
       <c r="W8" t="n">
-        <v>2471.749646754932</v>
+        <v>3764.791142417772</v>
       </c>
       <c r="X8" t="n">
-        <v>2052.607183334243</v>
+        <v>3345.648678997083</v>
       </c>
       <c r="Y8" t="n">
-        <v>1644.321059633896</v>
+        <v>2937.362555296736</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>563.7038470181708</v>
+        <v>590.595522422112</v>
       </c>
       <c r="C9" t="n">
-        <v>457.247385854813</v>
+        <v>484.1390612587543</v>
       </c>
       <c r="D9" t="n">
-        <v>362.1570970013663</v>
+        <v>389.0487724053075</v>
       </c>
       <c r="E9" t="n">
-        <v>268.03668232832</v>
+        <v>294.9283577322612</v>
       </c>
       <c r="F9" t="n">
-        <v>184.6528439444816</v>
+        <v>211.5445193484229</v>
       </c>
       <c r="G9" t="n">
-        <v>99.26775421066549</v>
+        <v>126.1594296146067</v>
       </c>
       <c r="H9" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="I9" t="n">
-        <v>83.59577518733556</v>
+        <v>110.4874505912768</v>
       </c>
       <c r="J9" t="n">
-        <v>408.1541001535479</v>
+        <v>435.0457755574891</v>
       </c>
       <c r="K9" t="n">
-        <v>891.6393228287325</v>
+        <v>1115.779295627866</v>
       </c>
       <c r="L9" t="n">
-        <v>891.6393228287325</v>
+        <v>1115.779295627866</v>
       </c>
       <c r="M9" t="n">
-        <v>891.6393228287325</v>
+        <v>1630.490760815288</v>
       </c>
       <c r="N9" t="n">
-        <v>1603.599085411347</v>
+        <v>1630.490760815288</v>
       </c>
       <c r="O9" t="n">
-        <v>1603.599085411347</v>
+        <v>1630.490760815288</v>
       </c>
       <c r="P9" t="n">
-        <v>1603.599085411347</v>
+        <v>1630.490760815288</v>
       </c>
       <c r="Q9" t="n">
-        <v>1603.599085411347</v>
+        <v>1630.490760815288</v>
       </c>
       <c r="R9" t="n">
-        <v>1720.771863505687</v>
+        <v>1747.663538909628</v>
       </c>
       <c r="S9" t="n">
-        <v>1657.31642595407</v>
+        <v>1684.208101358011</v>
       </c>
       <c r="T9" t="n">
-        <v>1527.137782284672</v>
+        <v>1554.029457688613</v>
       </c>
       <c r="U9" t="n">
-        <v>1350.80123528464</v>
+        <v>1377.692910688581</v>
       </c>
       <c r="V9" t="n">
-        <v>1151.683717346639</v>
+        <v>1178.57539275058</v>
       </c>
       <c r="W9" t="n">
-        <v>966.3609630798333</v>
+        <v>993.2526384837745</v>
       </c>
       <c r="X9" t="n">
-        <v>811.4935273187132</v>
+        <v>838.3852027226544</v>
       </c>
       <c r="Y9" t="n">
-        <v>685.0077480979339</v>
+        <v>711.8994235018752</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>926.2673081464936</v>
+        <v>934.9198145077505</v>
       </c>
       <c r="C10" t="n">
-        <v>798.437276147812</v>
+        <v>762.3581029909755</v>
       </c>
       <c r="D10" t="n">
-        <v>632.5592833493347</v>
+        <v>596.4801101924982</v>
       </c>
       <c r="E10" t="n">
-        <v>462.8012796000719</v>
+        <v>426.7221064432354</v>
       </c>
       <c r="F10" t="n">
-        <v>286.0942255618281</v>
+        <v>250.0150524049915</v>
       </c>
       <c r="G10" t="n">
-        <v>286.0942255618281</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="H10" t="n">
-        <v>146.1920512522026</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="I10" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="J10" t="n">
-        <v>144.1117871915678</v>
+        <v>171.0034625955091</v>
       </c>
       <c r="K10" t="n">
-        <v>418.8702417627034</v>
+        <v>445.7619171666447</v>
       </c>
       <c r="L10" t="n">
-        <v>837.0801235306644</v>
+        <v>863.9717989346057</v>
       </c>
       <c r="M10" t="n">
-        <v>1296.563990711577</v>
+        <v>1323.455666115519</v>
       </c>
       <c r="N10" t="n">
-        <v>1738.822793869222</v>
+        <v>1765.714469273163</v>
       </c>
       <c r="O10" t="n">
-        <v>2158.492043095003</v>
+        <v>2185.383718498945</v>
       </c>
       <c r="P10" t="n">
-        <v>2505.998937065345</v>
+        <v>2532.890612469287</v>
       </c>
       <c r="Q10" t="n">
-        <v>2674.191711929678</v>
+        <v>2701.083387333619</v>
       </c>
       <c r="R10" t="n">
-        <v>2674.191711929678</v>
+        <v>2701.083387333619</v>
       </c>
       <c r="S10" t="n">
-        <v>2674.191711929678</v>
+        <v>2682.844218290934</v>
       </c>
       <c r="T10" t="n">
-        <v>2428.312265508133</v>
+        <v>2436.96477186939</v>
       </c>
       <c r="U10" t="n">
-        <v>2149.879264761238</v>
+        <v>2158.531771122495</v>
       </c>
       <c r="V10" t="n">
-        <v>1862.923756631669</v>
+        <v>1871.576262992925</v>
       </c>
       <c r="W10" t="n">
-        <v>1590.89735221796</v>
+        <v>1599.549858579217</v>
       </c>
       <c r="X10" t="n">
-        <v>1345.505597551373</v>
+        <v>1354.158103912629</v>
       </c>
       <c r="Y10" t="n">
-        <v>1118.085926865481</v>
+        <v>1126.738433226738</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1611.837302376746</v>
+        <v>1820.534998878308</v>
       </c>
       <c r="C11" t="n">
-        <v>1611.837302376746</v>
+        <v>1382.392526061732</v>
       </c>
       <c r="D11" t="n">
-        <v>1175.92751755119</v>
+        <v>946.4827412361763</v>
       </c>
       <c r="E11" t="n">
-        <v>1175.92751755119</v>
+        <v>512.7079963944715</v>
       </c>
       <c r="F11" t="n">
-        <v>748.0600879603978</v>
+        <v>84.84056680367918</v>
       </c>
       <c r="G11" t="n">
-        <v>346.6622565836617</v>
+        <v>84.84056680367918</v>
       </c>
       <c r="H11" t="n">
-        <v>57.53210202687796</v>
+        <v>84.84056680367918</v>
       </c>
       <c r="I11" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="J11" t="n">
-        <v>492.7867894797959</v>
+        <v>519.6784648837371</v>
       </c>
       <c r="K11" t="n">
-        <v>1204.746552062411</v>
+        <v>1354.028756841915</v>
       </c>
       <c r="L11" t="n">
-        <v>1448.992488049632</v>
+        <v>1697.046479425605</v>
       </c>
       <c r="M11" t="n">
-        <v>1448.992488049632</v>
+        <v>1697.046479425605</v>
       </c>
       <c r="N11" t="n">
-        <v>1448.992488049632</v>
+        <v>1697.046479425605</v>
       </c>
       <c r="O11" t="n">
-        <v>1448.992488049632</v>
+        <v>2677.226145995911</v>
       </c>
       <c r="P11" t="n">
-        <v>2160.952250632246</v>
+        <v>3505.536020829308</v>
       </c>
       <c r="Q11" t="n">
-        <v>2707.451036590841</v>
+        <v>4052.034806787903</v>
       </c>
       <c r="R11" t="n">
-        <v>2876.605101343898</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="S11" t="n">
-        <v>2876.605101343898</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="T11" t="n">
-        <v>2876.605101343898</v>
+        <v>4100.957863822376</v>
       </c>
       <c r="U11" t="n">
-        <v>2876.605101343898</v>
+        <v>3841.735561139392</v>
       </c>
       <c r="V11" t="n">
-        <v>2513.988151277725</v>
+        <v>3479.118611073219</v>
       </c>
       <c r="W11" t="n">
-        <v>2109.132696688758</v>
+        <v>3074.263156484252</v>
       </c>
       <c r="X11" t="n">
-        <v>1689.990233268069</v>
+        <v>2655.120693063563</v>
       </c>
       <c r="Y11" t="n">
-        <v>1611.837302376746</v>
+        <v>2246.834569363216</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>563.7038470181708</v>
+        <v>590.595522422112</v>
       </c>
       <c r="C12" t="n">
-        <v>457.247385854813</v>
+        <v>484.1390612587543</v>
       </c>
       <c r="D12" t="n">
-        <v>362.1570970013663</v>
+        <v>389.0487724053075</v>
       </c>
       <c r="E12" t="n">
-        <v>268.03668232832</v>
+        <v>294.9283577322612</v>
       </c>
       <c r="F12" t="n">
-        <v>184.6528439444816</v>
+        <v>211.5445193484229</v>
       </c>
       <c r="G12" t="n">
-        <v>99.26775421066549</v>
+        <v>126.1594296146067</v>
       </c>
       <c r="H12" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="I12" t="n">
-        <v>83.59577518733556</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="J12" t="n">
-        <v>408.1541001535479</v>
+        <v>162.1803545711651</v>
       </c>
       <c r="K12" t="n">
-        <v>1062.860146779272</v>
+        <v>162.1803545711651</v>
       </c>
       <c r="L12" t="n">
-        <v>1062.860146779272</v>
+        <v>162.1803545711651</v>
       </c>
       <c r="M12" t="n">
-        <v>1062.860146779272</v>
+        <v>1206.924600277553</v>
       </c>
       <c r="N12" t="n">
-        <v>1062.860146779272</v>
+        <v>1206.924600277553</v>
       </c>
       <c r="O12" t="n">
-        <v>1062.860146779272</v>
+        <v>1206.924600277553</v>
       </c>
       <c r="P12" t="n">
-        <v>1062.860146779272</v>
+        <v>1206.924600277553</v>
       </c>
       <c r="Q12" t="n">
-        <v>1603.599085411347</v>
+        <v>1747.663538909628</v>
       </c>
       <c r="R12" t="n">
-        <v>1720.771863505687</v>
+        <v>1747.663538909628</v>
       </c>
       <c r="S12" t="n">
-        <v>1657.31642595407</v>
+        <v>1684.208101358011</v>
       </c>
       <c r="T12" t="n">
-        <v>1527.137782284672</v>
+        <v>1554.029457688613</v>
       </c>
       <c r="U12" t="n">
-        <v>1350.80123528464</v>
+        <v>1377.692910688581</v>
       </c>
       <c r="V12" t="n">
-        <v>1151.683717346639</v>
+        <v>1178.57539275058</v>
       </c>
       <c r="W12" t="n">
-        <v>966.3609630798333</v>
+        <v>993.2526384837745</v>
       </c>
       <c r="X12" t="n">
-        <v>811.4935273187132</v>
+        <v>838.3852027226544</v>
       </c>
       <c r="Y12" t="n">
-        <v>685.0077480979339</v>
+        <v>711.8994235018752</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>745.6081181498621</v>
+        <v>1163.481938042701</v>
       </c>
       <c r="C13" t="n">
-        <v>573.046406633087</v>
+        <v>990.9202265259256</v>
       </c>
       <c r="D13" t="n">
-        <v>407.1684138346097</v>
+        <v>825.0422337274483</v>
       </c>
       <c r="E13" t="n">
-        <v>237.410410085347</v>
+        <v>655.2842299781855</v>
       </c>
       <c r="F13" t="n">
-        <v>60.7033560471032</v>
+        <v>478.5771759399417</v>
       </c>
       <c r="G13" t="n">
-        <v>57.53210202687796</v>
+        <v>312.9859009657694</v>
       </c>
       <c r="H13" t="n">
-        <v>57.53210202687796</v>
+        <v>173.0837266561439</v>
       </c>
       <c r="I13" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="J13" t="n">
-        <v>144.1117871915678</v>
+        <v>171.0034625955091</v>
       </c>
       <c r="K13" t="n">
-        <v>418.8702417627034</v>
+        <v>445.7619171666447</v>
       </c>
       <c r="L13" t="n">
-        <v>837.0801235306644</v>
+        <v>863.9717989346057</v>
       </c>
       <c r="M13" t="n">
-        <v>1296.563990711577</v>
+        <v>1323.455666115519</v>
       </c>
       <c r="N13" t="n">
-        <v>1738.822793869222</v>
+        <v>1765.714469273163</v>
       </c>
       <c r="O13" t="n">
-        <v>2158.492043095003</v>
+        <v>2185.383718498945</v>
       </c>
       <c r="P13" t="n">
-        <v>2505.998937065345</v>
+        <v>2532.890612469287</v>
       </c>
       <c r="Q13" t="n">
-        <v>2674.191711929678</v>
+        <v>2701.083387333619</v>
       </c>
       <c r="R13" t="n">
-        <v>2652.77389063505</v>
+        <v>2701.083387333619</v>
       </c>
       <c r="S13" t="n">
-        <v>2493.532521933046</v>
+        <v>2701.083387333619</v>
       </c>
       <c r="T13" t="n">
-        <v>2247.653075511501</v>
+        <v>2455.203940912074</v>
       </c>
       <c r="U13" t="n">
-        <v>1969.220074764607</v>
+        <v>2387.093894657445</v>
       </c>
       <c r="V13" t="n">
-        <v>1682.264566635037</v>
+        <v>2100.138386527876</v>
       </c>
       <c r="W13" t="n">
-        <v>1410.238162221329</v>
+        <v>1828.111982114167</v>
       </c>
       <c r="X13" t="n">
-        <v>1164.846407554741</v>
+        <v>1582.72022744758</v>
       </c>
       <c r="Y13" t="n">
-        <v>937.4267368688493</v>
+        <v>1355.300556761688</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>855.4045390828145</v>
+        <v>2511.062984811828</v>
       </c>
       <c r="C14" t="n">
-        <v>485.3995316176702</v>
+        <v>2072.920511995252</v>
       </c>
       <c r="D14" t="n">
-        <v>485.3995316176702</v>
+        <v>1637.010727169696</v>
       </c>
       <c r="E14" t="n">
-        <v>485.3995316176702</v>
+        <v>1203.235982327991</v>
       </c>
       <c r="F14" t="n">
-        <v>57.53210202687796</v>
+        <v>775.368552737199</v>
       </c>
       <c r="G14" t="n">
-        <v>57.53210202687796</v>
+        <v>373.9707213604629</v>
       </c>
       <c r="H14" t="n">
-        <v>57.53210202687796</v>
+        <v>84.84056680367918</v>
       </c>
       <c r="I14" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="J14" t="n">
-        <v>492.7867894797959</v>
+        <v>519.6784648837371</v>
       </c>
       <c r="K14" t="n">
-        <v>1204.746552062411</v>
+        <v>1354.028756841915</v>
       </c>
       <c r="L14" t="n">
-        <v>1448.992488049632</v>
+        <v>1354.028756841915</v>
       </c>
       <c r="M14" t="n">
-        <v>1448.992488049632</v>
+        <v>1866.200544178663</v>
       </c>
       <c r="N14" t="n">
-        <v>1448.992488049632</v>
+        <v>1866.200544178663</v>
       </c>
       <c r="O14" t="n">
-        <v>1448.992488049632</v>
+        <v>2846.380210748969</v>
       </c>
       <c r="P14" t="n">
-        <v>2160.952250632246</v>
+        <v>3674.690085582365</v>
       </c>
       <c r="Q14" t="n">
-        <v>2707.451036590841</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="R14" t="n">
-        <v>2876.605101343898</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="S14" t="n">
-        <v>2876.605101343898</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="T14" t="n">
-        <v>2876.605101343898</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="U14" t="n">
-        <v>2876.605101343898</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="V14" t="n">
-        <v>2513.988151277725</v>
+        <v>4169.646597006738</v>
       </c>
       <c r="W14" t="n">
-        <v>2109.132696688758</v>
+        <v>3764.791142417772</v>
       </c>
       <c r="X14" t="n">
-        <v>1689.990233268069</v>
+        <v>3345.648678997083</v>
       </c>
       <c r="Y14" t="n">
-        <v>1281.704109567722</v>
+        <v>2937.362555296736</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>563.7038470181708</v>
+        <v>590.595522422112</v>
       </c>
       <c r="C15" t="n">
-        <v>457.247385854813</v>
+        <v>484.1390612587543</v>
       </c>
       <c r="D15" t="n">
-        <v>362.1570970013663</v>
+        <v>389.0487724053075</v>
       </c>
       <c r="E15" t="n">
-        <v>268.03668232832</v>
+        <v>294.9283577322612</v>
       </c>
       <c r="F15" t="n">
-        <v>184.6528439444816</v>
+        <v>211.5445193484229</v>
       </c>
       <c r="G15" t="n">
-        <v>99.26775421066549</v>
+        <v>126.1594296146067</v>
       </c>
       <c r="H15" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="I15" t="n">
-        <v>83.59577518733556</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="J15" t="n">
-        <v>408.1541001535479</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="K15" t="n">
-        <v>1062.860146779272</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="L15" t="n">
-        <v>1062.860146779272</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="M15" t="n">
-        <v>1062.860146779272</v>
+        <v>1129.168023137207</v>
       </c>
       <c r="N15" t="n">
-        <v>1062.860146779272</v>
+        <v>1747.663538909628</v>
       </c>
       <c r="O15" t="n">
-        <v>1062.860146779272</v>
+        <v>1747.663538909628</v>
       </c>
       <c r="P15" t="n">
-        <v>1062.860146779272</v>
+        <v>1747.663538909628</v>
       </c>
       <c r="Q15" t="n">
-        <v>1603.599085411347</v>
+        <v>1747.663538909628</v>
       </c>
       <c r="R15" t="n">
-        <v>1720.771863505687</v>
+        <v>1747.663538909628</v>
       </c>
       <c r="S15" t="n">
-        <v>1657.31642595407</v>
+        <v>1684.208101358011</v>
       </c>
       <c r="T15" t="n">
-        <v>1527.137782284672</v>
+        <v>1554.029457688613</v>
       </c>
       <c r="U15" t="n">
-        <v>1350.80123528464</v>
+        <v>1377.692910688581</v>
       </c>
       <c r="V15" t="n">
-        <v>1151.683717346639</v>
+        <v>1178.57539275058</v>
       </c>
       <c r="W15" t="n">
-        <v>966.3609630798333</v>
+        <v>993.2526384837745</v>
       </c>
       <c r="X15" t="n">
-        <v>811.4935273187132</v>
+        <v>838.3852027226544</v>
       </c>
       <c r="Y15" t="n">
-        <v>685.0077480979339</v>
+        <v>711.8994235018752</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>745.6081181498621</v>
+        <v>1163.481938042701</v>
       </c>
       <c r="C16" t="n">
-        <v>573.046406633087</v>
+        <v>990.9202265259256</v>
       </c>
       <c r="D16" t="n">
-        <v>407.1684138346097</v>
+        <v>825.0422337274483</v>
       </c>
       <c r="E16" t="n">
-        <v>237.410410085347</v>
+        <v>655.2842299781855</v>
       </c>
       <c r="F16" t="n">
-        <v>60.7033560471032</v>
+        <v>478.5771759399417</v>
       </c>
       <c r="G16" t="n">
-        <v>57.53210202687796</v>
+        <v>312.9859009657694</v>
       </c>
       <c r="H16" t="n">
-        <v>57.53210202687796</v>
+        <v>173.0837266561439</v>
       </c>
       <c r="I16" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="J16" t="n">
-        <v>144.1117871915678</v>
+        <v>171.0034625955091</v>
       </c>
       <c r="K16" t="n">
-        <v>418.8702417627034</v>
+        <v>445.7619171666447</v>
       </c>
       <c r="L16" t="n">
-        <v>837.0801235306644</v>
+        <v>863.9717989346057</v>
       </c>
       <c r="M16" t="n">
-        <v>1296.563990711577</v>
+        <v>1323.455666115519</v>
       </c>
       <c r="N16" t="n">
-        <v>1738.822793869222</v>
+        <v>1765.714469273163</v>
       </c>
       <c r="O16" t="n">
-        <v>2158.492043095003</v>
+        <v>2185.383718498945</v>
       </c>
       <c r="P16" t="n">
-        <v>2505.998937065345</v>
+        <v>2532.890612469287</v>
       </c>
       <c r="Q16" t="n">
-        <v>2674.191711929678</v>
+        <v>2701.083387333619</v>
       </c>
       <c r="R16" t="n">
-        <v>2652.77389063505</v>
+        <v>2701.083387333619</v>
       </c>
       <c r="S16" t="n">
-        <v>2493.532521933046</v>
+        <v>2701.083387333619</v>
       </c>
       <c r="T16" t="n">
-        <v>2247.653075511501</v>
+        <v>2455.203940912074</v>
       </c>
       <c r="U16" t="n">
-        <v>1969.220074764607</v>
+        <v>2387.093894657445</v>
       </c>
       <c r="V16" t="n">
-        <v>1682.264566635037</v>
+        <v>2100.138386527876</v>
       </c>
       <c r="W16" t="n">
-        <v>1410.238162221329</v>
+        <v>1828.111982114167</v>
       </c>
       <c r="X16" t="n">
-        <v>1164.846407554741</v>
+        <v>1582.72022744758</v>
       </c>
       <c r="Y16" t="n">
-        <v>937.4267368688493</v>
+        <v>1355.300556761688</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1281.704109567722</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>1281.704109567722</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1281.704109567722</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>847.9293647260174</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F17" t="n">
-        <v>420.0619351352252</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G17" t="n">
-        <v>57.53210202687796</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H17" t="n">
-        <v>57.53210202687796</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I17" t="n">
-        <v>57.53210202687796</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>492.7867894797959</v>
+        <v>382.0682546095395</v>
       </c>
       <c r="K17" t="n">
-        <v>492.7867894797959</v>
+        <v>1216.418546567717</v>
       </c>
       <c r="L17" t="n">
-        <v>492.7867894797959</v>
+        <v>2291.478512820577</v>
       </c>
       <c r="M17" t="n">
-        <v>492.7867894797959</v>
+        <v>2291.478512820577</v>
       </c>
       <c r="N17" t="n">
-        <v>737.032725467017</v>
+        <v>3417.209496257024</v>
       </c>
       <c r="O17" t="n">
-        <v>1448.992488049632</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="P17" t="n">
-        <v>2160.952250632246</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>2707.451036590841</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>2876.605101343898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>2876.605101343898</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>2876.605101343898</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>2876.605101343898</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>2513.988151277725</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>2109.132696688758</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>1689.990233268069</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>1281.704109567722</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>563.7038470181708</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>457.247385854813</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>362.1570970013663</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>268.03668232832</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>184.6528439444816</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>99.26775421066549</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>57.53210202687796</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>83.59577518733556</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J18" t="n">
-        <v>408.1541001535479</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K18" t="n">
-        <v>408.1541001535479</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L18" t="n">
-        <v>408.1541001535479</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="M18" t="n">
-        <v>408.1541001535479</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="N18" t="n">
-        <v>408.1541001535479</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="O18" t="n">
-        <v>408.1541001535479</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P18" t="n">
-        <v>1062.860146779272</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q18" t="n">
-        <v>1603.599085411347</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R18" t="n">
-        <v>1720.771863505687</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1657.31642595407</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1527.137782284672</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1350.80123528464</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1151.683717346639</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>966.3609630798333</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>811.4935273187132</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>685.0077480979339</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>745.6081181498621</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C19" t="n">
-        <v>573.046406633087</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D19" t="n">
-        <v>407.1684138346097</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E19" t="n">
-        <v>237.410410085347</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F19" t="n">
-        <v>223.1233770010503</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G19" t="n">
-        <v>57.53210202687796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H19" t="n">
-        <v>57.53210202687796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
-        <v>57.53210202687796</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>144.1117871915678</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>418.8702417627034</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>837.0801235306644</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1296.563990711577</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1738.822793869222</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2158.492043095003</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2505.998937065345</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2674.191711929678</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2652.77389063505</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2493.532521933046</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T19" t="n">
-        <v>2247.653075511501</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U19" t="n">
-        <v>1969.220074764607</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V19" t="n">
-        <v>1682.264566635037</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W19" t="n">
-        <v>1410.238162221329</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X19" t="n">
-        <v>1164.846407554741</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y19" t="n">
-        <v>937.4267368688493</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="20">
@@ -5738,28 +5740,28 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K20" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423627</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N20" t="n">
         <v>2588.899621423627</v>
@@ -5789,13 +5791,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5832,19 +5834,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O21" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P21" t="n">
         <v>1107.588885023173</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324584</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831957</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F22" t="n">
-        <v>267.852115244952</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G22" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H22" t="n">
         <v>102.2608402707796</v>
@@ -5935,25 +5937,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T22" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U22" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V22" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W22" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X22" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="23">
@@ -5975,40 +5977,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6026,13 +6028,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C24" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D24" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E24" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F24" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G24" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H24" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I24" t="n">
-        <v>128.3245134312372</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J24" t="n">
-        <v>452.8828383974496</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K24" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="L24" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="M24" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="N24" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="O24" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="P24" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q24" t="n">
-        <v>1648.327823655249</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R24" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S24" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T24" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U24" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V24" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W24" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X24" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y24" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="25">
@@ -6212,40 +6214,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M26" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>790.3368563937634</v>
+        <v>3365.117609755799</v>
       </c>
       <c r="C28" t="n">
-        <v>617.7751448769883</v>
+        <v>3192.555898239023</v>
       </c>
       <c r="D28" t="n">
-        <v>451.897152078511</v>
+        <v>3026.677905440546</v>
       </c>
       <c r="E28" t="n">
-        <v>282.1391483292483</v>
+        <v>2856.919901691283</v>
       </c>
       <c r="F28" t="n">
-        <v>242.1630145804051</v>
+        <v>2680.21284765304</v>
       </c>
       <c r="G28" t="n">
-        <v>242.1630145804051</v>
+        <v>2514.621572678867</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="I28" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J28" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K28" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L28" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M28" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N28" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O28" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P28" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q28" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>4867.162567117437</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008508</v>
+        <v>4588.729566370543</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878938</v>
+        <v>4301.774058240973</v>
       </c>
       <c r="W28" t="n">
-        <v>1454.96690046523</v>
+        <v>4029.747653827265</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.575145798642</v>
+        <v>3784.355899160677</v>
       </c>
       <c r="Y28" t="n">
-        <v>982.1554751127505</v>
+        <v>3556.936228474786</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6451,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6470,7 +6472,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
         <v>2588.899621423627</v>
@@ -6537,22 +6539,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J30" t="n">
-        <v>452.8828383974496</v>
+        <v>426.819165236992</v>
       </c>
       <c r="K30" t="n">
-        <v>1107.588885023173</v>
+        <v>426.819165236992</v>
       </c>
       <c r="L30" t="n">
-        <v>1107.588885023173</v>
+        <v>426.819165236992</v>
       </c>
       <c r="M30" t="n">
-        <v>1107.588885023173</v>
+        <v>426.819165236992</v>
       </c>
       <c r="N30" t="n">
-        <v>1107.588885023173</v>
+        <v>426.819165236992</v>
       </c>
       <c r="O30" t="n">
         <v>1107.588885023173</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1162.814665109382</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6648,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C32" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D32" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E32" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>3168.718933692368</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S32" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T32" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U32" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V32" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X32" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="33">
@@ -6774,25 +6776,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J33" t="n">
-        <v>452.8828383974496</v>
+        <v>426.819165236992</v>
       </c>
       <c r="K33" t="n">
-        <v>1107.588885023173</v>
+        <v>426.819165236992</v>
       </c>
       <c r="L33" t="n">
-        <v>1107.588885023173</v>
+        <v>426.819165236992</v>
       </c>
       <c r="M33" t="n">
-        <v>1107.588885023173</v>
+        <v>426.819165236992</v>
       </c>
       <c r="N33" t="n">
-        <v>1107.588885023173</v>
+        <v>426.819165236992</v>
       </c>
       <c r="O33" t="n">
-        <v>1107.588885023173</v>
+        <v>426.819165236992</v>
       </c>
       <c r="P33" t="n">
         <v>1107.588885023173</v>
@@ -6832,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>811.7546776883914</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>639.1929661716164</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>473.3149733731391</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>303.5569696238763</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>126.8499155856325</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
         <v>102.2608402707796</v>
@@ -6883,25 +6885,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6923,40 +6925,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>557.2627364873778</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>1632.322702740237</v>
       </c>
       <c r="M35" t="n">
-        <v>2588.899621423627</v>
+        <v>1632.322702740237</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -6974,13 +6976,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="36">
@@ -7017,19 +7019,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P36" t="n">
         <v>1107.588885023173</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>790.3368563937634</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C37" t="n">
-        <v>617.7751448769883</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D37" t="n">
-        <v>451.897152078511</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E37" t="n">
-        <v>282.1391483292483</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7117,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T37" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U37" t="n">
-        <v>2013.948813008508</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V37" t="n">
-        <v>1726.993304878938</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W37" t="n">
-        <v>1454.96690046523</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X37" t="n">
-        <v>1209.575145798642</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y37" t="n">
-        <v>982.1554751127505</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="38">
@@ -7172,31 +7174,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L38" t="n">
-        <v>1371.865819681875</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M38" t="n">
-        <v>2528.913654892426</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423628</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P38" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
         <v>5029.390139722817</v>
@@ -7211,13 +7213,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>790.3368563937634</v>
+        <v>1057.634124109936</v>
       </c>
       <c r="C40" t="n">
-        <v>617.7751448769883</v>
+        <v>885.0724125931612</v>
       </c>
       <c r="D40" t="n">
-        <v>451.897152078511</v>
+        <v>719.1944197946839</v>
       </c>
       <c r="E40" t="n">
-        <v>282.1391483292483</v>
+        <v>549.4364160454211</v>
       </c>
       <c r="F40" t="n">
-        <v>105.4320942910045</v>
+        <v>372.7293620071773</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707796</v>
+        <v>207.138087033005</v>
       </c>
       <c r="H40" t="n">
         <v>102.2608402707796</v>
@@ -7354,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2292.381813755403</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="U40" t="n">
-        <v>2013.948813008508</v>
+        <v>2281.246080724681</v>
       </c>
       <c r="V40" t="n">
-        <v>1726.993304878938</v>
+        <v>1994.290572595111</v>
       </c>
       <c r="W40" t="n">
-        <v>1454.96690046523</v>
+        <v>1722.264168181403</v>
       </c>
       <c r="X40" t="n">
-        <v>1209.575145798642</v>
+        <v>1476.872413514815</v>
       </c>
       <c r="Y40" t="n">
-        <v>982.1554751127505</v>
+        <v>1249.452742828923</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2528.90004765179</v>
+        <v>2221.516040882185</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835213</v>
+        <v>1783.373568065608</v>
       </c>
       <c r="D41" t="n">
-        <v>1654.847790009658</v>
+        <v>1347.463783240052</v>
       </c>
       <c r="E41" t="n">
-        <v>1221.073045167953</v>
+        <v>913.6890383983475</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771606</v>
+        <v>485.8216088075553</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004245</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436408</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="I41" t="n">
-        <v>102.2608402707796</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="J41" t="n">
-        <v>537.5155277236975</v>
+        <v>519.6784648837371</v>
       </c>
       <c r="K41" t="n">
-        <v>1371.865819681875</v>
+        <v>1354.028756841915</v>
       </c>
       <c r="L41" t="n">
-        <v>1371.865819681875</v>
+        <v>1866.200544178663</v>
       </c>
       <c r="M41" t="n">
-        <v>2528.913654892426</v>
+        <v>1866.200544178663</v>
       </c>
       <c r="N41" t="n">
-        <v>2588.899621423628</v>
+        <v>1866.200544178663</v>
       </c>
       <c r="O41" t="n">
-        <v>3569.079287993934</v>
+        <v>2846.380210748969</v>
       </c>
       <c r="P41" t="n">
-        <v>4397.38916282733</v>
+        <v>3674.690085582365</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785925</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.042013538981</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722818</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595857</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912874</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.4836598467</v>
+        <v>3880.099653077095</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257733</v>
+        <v>3475.244198488128</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837044</v>
+        <v>3056.101735067439</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136698</v>
+        <v>2647.815611367093</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3955.973997051466</v>
+        <v>590.595522422112</v>
       </c>
       <c r="C42" t="n">
-        <v>3849.517535888108</v>
+        <v>484.1390612587543</v>
       </c>
       <c r="D42" t="n">
-        <v>3754.427247034661</v>
+        <v>389.0487724053075</v>
       </c>
       <c r="E42" t="n">
-        <v>3660.306832361615</v>
+        <v>294.9283577322612</v>
       </c>
       <c r="F42" t="n">
-        <v>3576.922993977777</v>
+        <v>211.5445193484229</v>
       </c>
       <c r="G42" t="n">
-        <v>3491.53790424396</v>
+        <v>126.1594296146067</v>
       </c>
       <c r="H42" t="n">
-        <v>3449.802252060173</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="I42" t="n">
-        <v>3475.865925220631</v>
+        <v>110.4874505912768</v>
       </c>
       <c r="J42" t="n">
-        <v>3800.424250186843</v>
+        <v>435.0457755574891</v>
       </c>
       <c r="K42" t="n">
-        <v>4455.130296812566</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="L42" t="n">
-        <v>4455.130296812566</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="M42" t="n">
-        <v>4455.130296812566</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="N42" t="n">
-        <v>4455.130296812566</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="O42" t="n">
-        <v>4455.130296812566</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="P42" t="n">
-        <v>4455.130296812566</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="Q42" t="n">
-        <v>4995.869235444641</v>
+        <v>1630.490760815288</v>
       </c>
       <c r="R42" t="n">
-        <v>5113.042013538981</v>
+        <v>1747.663538909628</v>
       </c>
       <c r="S42" t="n">
-        <v>5049.586575987364</v>
+        <v>1684.208101358011</v>
       </c>
       <c r="T42" t="n">
-        <v>4919.407932317966</v>
+        <v>1554.029457688613</v>
       </c>
       <c r="U42" t="n">
-        <v>4743.071385317934</v>
+        <v>1377.692910688581</v>
       </c>
       <c r="V42" t="n">
-        <v>4543.953867379933</v>
+        <v>1178.57539275058</v>
       </c>
       <c r="W42" t="n">
-        <v>4358.631113113128</v>
+        <v>993.2526384837745</v>
       </c>
       <c r="X42" t="n">
-        <v>4203.763677352008</v>
+        <v>838.3852027226544</v>
       </c>
       <c r="Y42" t="n">
-        <v>4077.277898131229</v>
+        <v>711.8994235018752</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>970.9960463903949</v>
+        <v>934.9198145077505</v>
       </c>
       <c r="C43" t="n">
-        <v>798.4343348736198</v>
+        <v>762.3581029909755</v>
       </c>
       <c r="D43" t="n">
-        <v>632.5563420751425</v>
+        <v>596.4801101924982</v>
       </c>
       <c r="E43" t="n">
-        <v>462.7983383258798</v>
+        <v>426.7221064432354</v>
       </c>
       <c r="F43" t="n">
-        <v>286.091284287636</v>
+        <v>250.0150524049915</v>
       </c>
       <c r="G43" t="n">
-        <v>242.1630145804051</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="H43" t="n">
-        <v>102.2608402707796</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="I43" t="n">
-        <v>102.2608402707796</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="J43" t="n">
-        <v>188.8405254354695</v>
+        <v>171.0034625955091</v>
       </c>
       <c r="K43" t="n">
-        <v>463.598980006605</v>
+        <v>445.7619171666447</v>
       </c>
       <c r="L43" t="n">
-        <v>881.8088617745661</v>
+        <v>863.9717989346057</v>
       </c>
       <c r="M43" t="n">
-        <v>1341.292728955479</v>
+        <v>1323.455666115519</v>
       </c>
       <c r="N43" t="n">
-        <v>1783.551532113124</v>
+        <v>1765.714469273163</v>
       </c>
       <c r="O43" t="n">
-        <v>2203.220781338905</v>
+        <v>2185.383718498945</v>
       </c>
       <c r="P43" t="n">
-        <v>2550.727675309247</v>
+        <v>2532.890612469287</v>
       </c>
       <c r="Q43" t="n">
-        <v>2718.920450173579</v>
+        <v>2701.083387333619</v>
       </c>
       <c r="R43" t="n">
-        <v>2718.920450173579</v>
+        <v>2701.083387333619</v>
       </c>
       <c r="S43" t="n">
-        <v>2718.920450173579</v>
+        <v>2682.844218290934</v>
       </c>
       <c r="T43" t="n">
-        <v>2473.041003752034</v>
+        <v>2436.96477186939</v>
       </c>
       <c r="U43" t="n">
-        <v>2194.608003005139</v>
+        <v>2158.531771122495</v>
       </c>
       <c r="V43" t="n">
-        <v>1907.65249487557</v>
+        <v>1871.576262992925</v>
       </c>
       <c r="W43" t="n">
-        <v>1635.626090461861</v>
+        <v>1599.549858579217</v>
       </c>
       <c r="X43" t="n">
-        <v>1390.234335795274</v>
+        <v>1354.158103912629</v>
       </c>
       <c r="Y43" t="n">
-        <v>1162.814665109382</v>
+        <v>1126.738433226738</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1220.714514225794</v>
+        <v>2199.988309279876</v>
       </c>
       <c r="C44" t="n">
-        <v>782.5720414092173</v>
+        <v>1761.845836463299</v>
       </c>
       <c r="D44" t="n">
-        <v>346.6622565836617</v>
+        <v>1325.936051637744</v>
       </c>
       <c r="E44" t="n">
-        <v>346.6622565836617</v>
+        <v>892.1613067960388</v>
       </c>
       <c r="F44" t="n">
-        <v>346.6622565836617</v>
+        <v>464.2938772052466</v>
       </c>
       <c r="G44" t="n">
-        <v>346.6622565836617</v>
+        <v>84.84056680367918</v>
       </c>
       <c r="H44" t="n">
-        <v>57.53210202687796</v>
+        <v>84.84056680367918</v>
       </c>
       <c r="I44" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="J44" t="n">
-        <v>492.7867894797959</v>
+        <v>519.6784648837371</v>
       </c>
       <c r="K44" t="n">
-        <v>1204.746552062411</v>
+        <v>1354.028756841915</v>
       </c>
       <c r="L44" t="n">
-        <v>1448.992488049632</v>
+        <v>1866.200544178663</v>
       </c>
       <c r="M44" t="n">
-        <v>1448.992488049632</v>
+        <v>1866.200544178663</v>
       </c>
       <c r="N44" t="n">
-        <v>1448.992488049632</v>
+        <v>1866.200544178663</v>
       </c>
       <c r="O44" t="n">
-        <v>1448.992488049632</v>
+        <v>2846.380210748969</v>
       </c>
       <c r="P44" t="n">
-        <v>2160.952250632246</v>
+        <v>3674.690085582365</v>
       </c>
       <c r="Q44" t="n">
-        <v>2707.451036590841</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="R44" t="n">
-        <v>2876.605101343898</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="S44" t="n">
-        <v>2876.605101343898</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="T44" t="n">
-        <v>2876.605101343898</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="U44" t="n">
-        <v>2876.605101343898</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="V44" t="n">
-        <v>2876.605101343898</v>
+        <v>3858.571921474786</v>
       </c>
       <c r="W44" t="n">
-        <v>2474.442671831738</v>
+        <v>3453.71646688582</v>
       </c>
       <c r="X44" t="n">
-        <v>2055.300208411049</v>
+        <v>3034.57400346513</v>
       </c>
       <c r="Y44" t="n">
-        <v>1647.014084710702</v>
+        <v>2626.287879764784</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>563.7038470181708</v>
+        <v>590.595522422112</v>
       </c>
       <c r="C45" t="n">
-        <v>457.247385854813</v>
+        <v>484.1390612587543</v>
       </c>
       <c r="D45" t="n">
-        <v>362.1570970013663</v>
+        <v>389.0487724053075</v>
       </c>
       <c r="E45" t="n">
-        <v>268.03668232832</v>
+        <v>294.9283577322612</v>
       </c>
       <c r="F45" t="n">
-        <v>184.6528439444816</v>
+        <v>211.5445193484229</v>
       </c>
       <c r="G45" t="n">
-        <v>99.26775421066549</v>
+        <v>126.1594296146067</v>
       </c>
       <c r="H45" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="I45" t="n">
-        <v>83.59577518733556</v>
+        <v>110.4874505912768</v>
       </c>
       <c r="J45" t="n">
-        <v>408.1541001535479</v>
+        <v>435.0457755574891</v>
       </c>
       <c r="K45" t="n">
-        <v>1062.860146779272</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="L45" t="n">
-        <v>1062.860146779272</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="M45" t="n">
-        <v>1062.860146779272</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="N45" t="n">
-        <v>1062.860146779272</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="O45" t="n">
-        <v>1062.860146779272</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="P45" t="n">
-        <v>1062.860146779272</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="Q45" t="n">
-        <v>1603.599085411347</v>
+        <v>1630.490760815288</v>
       </c>
       <c r="R45" t="n">
-        <v>1720.771863505687</v>
+        <v>1747.663538909628</v>
       </c>
       <c r="S45" t="n">
-        <v>1657.31642595407</v>
+        <v>1684.208101358011</v>
       </c>
       <c r="T45" t="n">
-        <v>1527.137782284672</v>
+        <v>1554.029457688613</v>
       </c>
       <c r="U45" t="n">
-        <v>1350.80123528464</v>
+        <v>1377.692910688581</v>
       </c>
       <c r="V45" t="n">
-        <v>1151.683717346639</v>
+        <v>1178.57539275058</v>
       </c>
       <c r="W45" t="n">
-        <v>966.3609630798333</v>
+        <v>993.2526384837745</v>
       </c>
       <c r="X45" t="n">
-        <v>811.4935273187132</v>
+        <v>838.3852027226544</v>
       </c>
       <c r="Y45" t="n">
-        <v>685.0077480979339</v>
+        <v>711.8994235018752</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>745.6081181498621</v>
+        <v>934.9198145077505</v>
       </c>
       <c r="C46" t="n">
-        <v>735.4664275870342</v>
+        <v>762.3581029909755</v>
       </c>
       <c r="D46" t="n">
-        <v>569.5884347885569</v>
+        <v>596.4801101924982</v>
       </c>
       <c r="E46" t="n">
-        <v>399.8304310392941</v>
+        <v>426.7221064432354</v>
       </c>
       <c r="F46" t="n">
-        <v>223.1233770010503</v>
+        <v>250.0150524049915</v>
       </c>
       <c r="G46" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="H46" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="I46" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081919</v>
       </c>
       <c r="J46" t="n">
-        <v>144.1117871915678</v>
+        <v>171.0034625955091</v>
       </c>
       <c r="K46" t="n">
-        <v>418.8702417627034</v>
+        <v>445.7619171666447</v>
       </c>
       <c r="L46" t="n">
-        <v>837.0801235306644</v>
+        <v>863.9717989346057</v>
       </c>
       <c r="M46" t="n">
-        <v>1296.563990711577</v>
+        <v>1323.455666115519</v>
       </c>
       <c r="N46" t="n">
-        <v>1738.822793869222</v>
+        <v>1765.714469273163</v>
       </c>
       <c r="O46" t="n">
-        <v>2158.492043095003</v>
+        <v>2185.383718498945</v>
       </c>
       <c r="P46" t="n">
-        <v>2505.998937065345</v>
+        <v>2532.890612469287</v>
       </c>
       <c r="Q46" t="n">
-        <v>2674.191711929678</v>
+        <v>2701.083387333619</v>
       </c>
       <c r="R46" t="n">
-        <v>2652.77389063505</v>
+        <v>2701.083387333619</v>
       </c>
       <c r="S46" t="n">
-        <v>2493.532521933046</v>
+        <v>2682.844218290934</v>
       </c>
       <c r="T46" t="n">
-        <v>2247.653075511501</v>
+        <v>2436.96477186939</v>
       </c>
       <c r="U46" t="n">
-        <v>1969.220074764607</v>
+        <v>2158.531771122495</v>
       </c>
       <c r="V46" t="n">
-        <v>1682.264566635037</v>
+        <v>1871.576262992925</v>
       </c>
       <c r="W46" t="n">
-        <v>1410.238162221329</v>
+        <v>1599.549858579217</v>
       </c>
       <c r="X46" t="n">
-        <v>1164.846407554741</v>
+        <v>1354.158103912629</v>
       </c>
       <c r="Y46" t="n">
-        <v>937.4267368688493</v>
+        <v>1126.738433226738</v>
       </c>
     </row>
   </sheetData>
@@ -7976,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>719.1512753359746</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="M2" t="n">
-        <v>246.7130666537587</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P2" t="n">
-        <v>719.1512753359746</v>
+        <v>88.52591951400973</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,13 +8054,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8073,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>661.3192390158827</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>345.0097498941939</v>
       </c>
       <c r="R3" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8213,10 +8215,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8225,19 +8227,19 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>686.3642661011506</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>719.1512753359746</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P5" t="n">
-        <v>719.1512753359746</v>
+        <v>316.3899266744752</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8289,10 +8291,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8301,22 +8303,22 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>719.1512753359746</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>719.1512753359746</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>241.7376124379591</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8453,22 +8455,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="N8" t="n">
-        <v>246.7130666537587</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>719.1512753359746</v>
+        <v>281.2658014622311</v>
       </c>
       <c r="P8" t="n">
-        <v>719.1512753359746</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8532,16 +8534,16 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>488.3689117931158</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>519.9105708963859</v>
       </c>
       <c r="N9" t="n">
-        <v>719.1512753359746</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8690,10 +8692,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>719.1512753359746</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>246.7130666537587</v>
+        <v>346.4825480643335</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8702,10 +8704,10 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>719.1512753359746</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8763,19 +8765,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>78.54199711146055</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8790,7 +8792,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,28 +8929,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>719.1512753359746</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>246.7130666537587</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>517.3452397340884</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>719.1512753359746</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9000,22 +9002,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>624.7429452246683</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9024,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,25 +9163,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>282.6337518573332</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>246.7130666537587</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>719.1512753359746</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>719.1512753359746</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157522</v>
@@ -9237,16 +9239,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9255,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,19 +9400,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>531.8762684426488</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9480,22 +9482,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9635,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10118,10 +10120,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10185,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10203,7 +10205,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>687.6461816022032</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
         <v>842.7780726850283</v>
@@ -10355,22 +10357,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10443,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>687.6461816022032</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -10583,19 +10585,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>459.5978749662608</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10607,7 +10609,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,22 +10667,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10820,19 +10822,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>60.59188538505214</v>
+        <v>753.9218057523913</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10844,7 +10846,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11063,13 +11065,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>517.3452397340884</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>60.59188538505214</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11081,7 +11083,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11297,10 +11299,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>719.1512753359746</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>246.7130666537587</v>
+        <v>517.3452397340884</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11309,16 +11311,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>719.1512753359746</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22544,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22556,16 +22558,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>251.54907680696</v>
+        <v>30.11680866212356</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22604,16 +22606,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -22750,10 +22752,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>122.9308428424046</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22771,7 +22773,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>144.1344859240867</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22784,16 +22786,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>255.1788426063377</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>67.45609069791811</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -22802,7 +22804,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22832,22 +22834,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22957,10 +22959,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22990,13 +22992,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>208.2197249473428</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -23021,10 +23023,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -23033,13 +23035,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>101.5251125002519</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23078,7 +23080,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>307.9639287766328</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -23179,7 +23181,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>44.28436272291249</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -23191,13 +23193,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23227,7 +23229,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -23255,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,10 +23311,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>98.83785721429371</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23324,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>326.8318608809329</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23428,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>160.7958207444076</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23495,25 +23497,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>67.45609069791811</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23552,7 +23554,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>307.9639287766328</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23665,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>160.7958207444076</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23729,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23744,13 +23746,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>38.47931828570506</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23899,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>160.7958207444076</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24142,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24175,7 +24177,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24610,13 +24612,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>135.3636110865066</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>120.4463752142708</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24835,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>18.31929241554607</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24853,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24888,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25087,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>138.5031525665292</v>
@@ -25123,7 +25125,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25321,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>160.795820744408</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>33.27974144948209</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25561,10 +25563,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>34.67467827192613</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25643,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>21.3124542862862</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25798,10 +25800,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>120.4463752142721</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25834,7 +25836,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25871,19 +25873,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>21.72507576541699</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25922,10 +25924,10 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>2.666094826038091</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26023,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>160.7958207444077</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>469418.1955218986</v>
+        <v>448275.0440021614</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>469418.1955218987</v>
+        <v>448275.0440021614</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>469418.1955218987</v>
+        <v>607058.1199221447</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>469418.1955218987</v>
+        <v>607058.1199221446</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>469418.1955218987</v>
+        <v>607058.1199221447</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>469418.1955218987</v>
+        <v>698353.7325582681</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>698353.7325582681</v>
+        <v>698353.732558268</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>698353.732558268</v>
+        <v>698353.7325582681</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>698353.7325582681</v>
+        <v>698353.732558268</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>698353.7325582681</v>
+        <v>698353.732558268</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>698353.732558268</v>
+        <v>607058.1199221446</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>469418.1955218987</v>
+        <v>607058.1199221447</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>159363.9959387866</v>
+        <v>152186.0528060574</v>
       </c>
       <c r="C2" t="n">
-        <v>159363.9959387866</v>
+        <v>152186.0528060573</v>
       </c>
       <c r="D2" t="n">
-        <v>159363.9959387866</v>
+        <v>206091.7294659212</v>
       </c>
       <c r="E2" t="n">
-        <v>159363.9959387866</v>
+        <v>206091.7294659212</v>
       </c>
       <c r="F2" t="n">
-        <v>159363.9959387866</v>
+        <v>206091.7294659213</v>
       </c>
       <c r="G2" t="n">
-        <v>159363.9959387866</v>
+        <v>237085.9128618086</v>
       </c>
       <c r="H2" t="n">
         <v>237085.9128618085</v>
@@ -26335,13 +26337,13 @@
         <v>237085.9128618085</v>
       </c>
       <c r="J2" t="n">
-        <v>237085.9128618085</v>
+        <v>237085.9128618086</v>
       </c>
       <c r="K2" t="n">
         <v>237085.9128618085</v>
       </c>
       <c r="L2" t="n">
-        <v>237085.9128618086</v>
+        <v>237085.9128618085</v>
       </c>
       <c r="M2" t="n">
         <v>237085.9128618085</v>
@@ -26350,10 +26352,10 @@
         <v>237085.9128618086</v>
       </c>
       <c r="O2" t="n">
-        <v>237085.9128618086</v>
+        <v>206091.7294659212</v>
       </c>
       <c r="P2" t="n">
-        <v>159363.9959387866</v>
+        <v>206091.7294659212</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>241004.1328444178</v>
+        <v>223699.6985840449</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>120456.7261630934</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -26378,22 +26380,22 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>61110.89210613196</v>
       </c>
       <c r="H3" t="n">
-        <v>150852.7017106108</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>188161.6162840057</v>
+        <v>174651.3487177062</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>98144.13701620408</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9575.317467328376</v>
+        <v>9144.033827297713</v>
       </c>
       <c r="C4" t="n">
-        <v>9575.317467328377</v>
+        <v>9144.033827297715</v>
       </c>
       <c r="D4" t="n">
-        <v>9575.317467328377</v>
+        <v>12382.93333071889</v>
       </c>
       <c r="E4" t="n">
-        <v>9575.317467328376</v>
+        <v>12382.93333071889</v>
       </c>
       <c r="F4" t="n">
-        <v>9575.317467328377</v>
+        <v>12382.93333071889</v>
       </c>
       <c r="G4" t="n">
-        <v>9575.317467328376</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="H4" t="n">
         <v>14245.20557049264</v>
@@ -26454,10 +26456,10 @@
         <v>14245.20557049264</v>
       </c>
       <c r="O4" t="n">
-        <v>14245.20557049264</v>
+        <v>12382.93333071889</v>
       </c>
       <c r="P4" t="n">
-        <v>9575.317467328377</v>
+        <v>12382.93333071889</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>77351.99754042726</v>
+        <v>74212.52456175772</v>
       </c>
       <c r="C5" t="n">
-        <v>77351.99754042726</v>
+        <v>74212.52456175772</v>
       </c>
       <c r="D5" t="n">
-        <v>77351.99754042726</v>
+        <v>97789.67084742259</v>
       </c>
       <c r="E5" t="n">
-        <v>43724.39754042725</v>
+        <v>64162.07084742258</v>
       </c>
       <c r="F5" t="n">
-        <v>43724.39754042725</v>
+        <v>64162.07084742258</v>
       </c>
       <c r="G5" t="n">
-        <v>43724.39754042725</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.23860579252</v>
+        <v>64162.07084742258</v>
       </c>
       <c r="P5" t="n">
-        <v>43724.39754042725</v>
+        <v>64162.07084742258</v>
       </c>
     </row>
     <row r="6">
@@ -26519,37 +26521,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-168567.4519133869</v>
+        <v>-154870.2041670429</v>
       </c>
       <c r="C6" t="n">
-        <v>72436.68093103095</v>
+        <v>68829.4944170019</v>
       </c>
       <c r="D6" t="n">
-        <v>72436.68093103095</v>
+        <v>-24537.60087531368</v>
       </c>
       <c r="E6" t="n">
-        <v>106064.280931031</v>
+        <v>129546.7252877798</v>
       </c>
       <c r="F6" t="n">
-        <v>106064.280931031</v>
+        <v>129546.7252877798</v>
       </c>
       <c r="G6" t="n">
-        <v>106064.280931031</v>
+        <v>84011.57657939146</v>
       </c>
       <c r="H6" t="n">
-        <v>-5730.233025087437</v>
+        <v>145122.4686855234</v>
       </c>
       <c r="I6" t="n">
         <v>145122.4686855234</v>
       </c>
       <c r="J6" t="n">
-        <v>-43039.1475984823</v>
+        <v>-29528.88003218277</v>
       </c>
       <c r="K6" t="n">
         <v>145122.4686855234</v>
       </c>
       <c r="L6" t="n">
-        <v>145122.4686855234</v>
+        <v>46978.33166931928</v>
       </c>
       <c r="M6" t="n">
         <v>145122.4686855234</v>
@@ -26558,10 +26560,10 @@
         <v>145122.4686855234</v>
       </c>
       <c r="O6" t="n">
-        <v>145122.4686855234</v>
+        <v>129546.7252877797</v>
       </c>
       <c r="P6" t="n">
-        <v>106064.280931031</v>
+        <v>129546.7252877798</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>719.1512753359746</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="C4" t="n">
-        <v>719.1512753359746</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="D4" t="n">
-        <v>719.1512753359746</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="E4" t="n">
-        <v>719.1512753359746</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="F4" t="n">
-        <v>719.1512753359746</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="G4" t="n">
-        <v>719.1512753359746</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1278.260503384745</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="P4" t="n">
-        <v>719.1512753359746</v>
+        <v>1055.29721788524</v>
       </c>
     </row>
   </sheetData>
@@ -27009,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>719.1512753359746</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>387.7820112773829</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27024,22 +27026,22 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>222.9632854995054</v>
       </c>
       <c r="H4" t="n">
-        <v>559.1092280487708</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>719.1512753359743</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>387.7820112773828</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27255,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>719.1512753359746</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>387.7820112773829</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>222.9632854995054</v>
       </c>
       <c r="P4" t="n">
-        <v>559.1092280487708</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>719.1512753359746</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="M2" t="n">
-        <v>246.7130666537587</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P2" t="n">
-        <v>719.1512753359746</v>
+        <v>88.52591951400973</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,13 +34774,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.3269425863208</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34793,13 +34795,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>661.3192390158827</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>345.0097498941939</v>
       </c>
       <c r="R3" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34863,19 +34865,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512941</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821543</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,10 +34935,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34945,19 +34947,19 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>686.3642661011506</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>719.1512753359746</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P5" t="n">
-        <v>719.1512753359746</v>
+        <v>316.3899266744752</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35009,10 +35011,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -35021,22 +35023,22 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>719.1512753359746</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>719.1512753359746</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>241.7376124379591</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35100,13 +35102,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512941</v>
       </c>
       <c r="P7" t="n">
         <v>351.017064616507</v>
@@ -35173,22 +35175,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="N8" t="n">
-        <v>246.7130666537587</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>719.1512753359746</v>
+        <v>281.2658014622311</v>
       </c>
       <c r="P8" t="n">
-        <v>719.1512753359746</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35246,22 +35248,22 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>488.3689117931158</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>519.9105708963859</v>
       </c>
       <c r="N9" t="n">
-        <v>719.1512753359746</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35337,13 +35339,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P10" t="n">
         <v>351.017064616507</v>
@@ -35410,10 +35412,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>719.1512753359746</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>246.7130666537587</v>
+        <v>346.4825480643335</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -35422,10 +35424,10 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>719.1512753359746</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
@@ -35483,19 +35485,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.3269425863208</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>78.54199711146055</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35510,7 +35512,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35574,13 +35576,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35647,28 +35649,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>719.1512753359746</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>246.7130666537587</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>517.3452397340884</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>719.1512753359746</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,22 +35722,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.3269425863208</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>624.7429452246683</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35744,10 +35746,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35811,13 +35813,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>282.6337518573332</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>246.7130666537587</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>719.1512753359746</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>719.1512753359746</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.3269425863208</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35975,16 +35977,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36054,7 +36056,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36118,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>531.8762684426488</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36200,22 +36202,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K24" t="n">
         <v>661.3192390158824</v>
@@ -36455,7 +36457,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,13 +36752,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M28" t="n">
         <v>464.1251183645586</v>
@@ -36765,13 +36767,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36838,10 +36840,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36905,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36923,7 +36925,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>687.6461816022032</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471158</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37163,7 +37165,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>687.6461816022032</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -37303,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>459.5978749662608</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37327,7 +37329,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,22 +37387,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37540,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>60.59188538505214</v>
+        <v>753.9218057523913</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37564,7 +37566,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37780,16 +37782,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>517.3452397340884</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>60.59188538505214</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37801,7 +37803,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37877,7 +37879,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37944,7 +37946,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
@@ -38017,10 +38019,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>719.1512753359746</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>246.7130666537587</v>
+        <v>517.3452397340884</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -38029,16 +38031,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>719.1512753359746</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
@@ -38181,13 +38183,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_18.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>529365.5754034064</v>
+        <v>527573.3528121765</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16722200.63474373</v>
+        <v>16722200.63474371</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2152646.407911491</v>
+        <v>2152646.40791149</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7233451.105821507</v>
+        <v>7233451.105821508</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>64.72569810841502</v>
       </c>
       <c r="D2" t="n">
         <v>431.5506869772999</v>
@@ -676,10 +676,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>256.1220443490923</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -834,7 +834,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -867,10 +867,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>34.71811217257873</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>173.7040795765152</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -882,7 +882,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -898,7 +898,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>178.5822054820732</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>431.5506869772999</v>
@@ -907,7 +907,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>4.692198282221034</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>18.05677735225706</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>24.17175493184845</v>
       </c>
       <c r="V8" t="n">
-        <v>51.02685178887896</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -1305,7 +1305,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170454</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -1384,10 +1384,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -1423,13 +1423,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>119.0286976413981</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>51.02685178887987</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1545,10 +1545,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>67.42894579208244</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1621,7 +1621,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
@@ -1663,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>51.02685178887896</v>
+        <v>191.7806251956947</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1782,10 +1782,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>67.42894579208244</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1864,7 +1864,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -2019,10 +2019,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>67.42894579208244</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2490,7 +2490,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2730,10 +2730,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>18.05677735225841</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -3435,16 +3435,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>130.6556207749485</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>103.8284742946031</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3751,7 +3751,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>402.2763010085995</v>
       </c>
       <c r="G41" t="n">
         <v>397.3838530629687</v>
@@ -3799,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>337.6783262792255</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
@@ -3991,10 +3991,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>375.6587772975518</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -4030,13 +4030,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>51.02685178887987</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
@@ -4306,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2048.221573682272</v>
+        <v>1416.332668825484</v>
       </c>
       <c r="C2" t="n">
-        <v>1610.079100865695</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D2" t="n">
-        <v>1174.16931604014</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E2" t="n">
-        <v>740.3945711984347</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F2" t="n">
-        <v>312.5271416076425</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G2" t="n">
-        <v>312.5271416076425</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H2" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I2" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
-        <v>53.40121652862857</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>714.241271070407</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L2" t="n">
-        <v>1375.081325612186</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M2" t="n">
-        <v>1375.081325612186</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N2" t="n">
-        <v>1375.081325612186</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O2" t="n">
-        <v>2035.921380153964</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
-        <v>2123.562040472834</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q2" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R2" t="n">
         <v>2670.060826431428</v>
@@ -4363,19 +4363,19 @@
         <v>2670.060826431428</v>
       </c>
       <c r="U2" t="n">
-        <v>2410.838523748445</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V2" t="n">
-        <v>2048.221573682272</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W2" t="n">
-        <v>2048.221573682272</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="X2" t="n">
-        <v>2048.221573682272</v>
+        <v>2250.918363010739</v>
       </c>
       <c r="Y2" t="n">
-        <v>2048.221573682272</v>
+        <v>1842.632239310392</v>
       </c>
     </row>
     <row r="3">
@@ -4403,34 +4403,34 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J3" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>714.241271070407</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L3" t="n">
-        <v>714.241271070407</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M3" t="n">
-        <v>714.241271070407</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N3" t="n">
-        <v>714.241271070407</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O3" t="n">
-        <v>714.241271070407</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P3" t="n">
-        <v>1375.081325612186</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R3" t="n">
         <v>1716.640978007438</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1132.45937714051</v>
+        <v>992.5572028308845</v>
       </c>
       <c r="C4" t="n">
-        <v>959.897665623735</v>
+        <v>819.9954913141095</v>
       </c>
       <c r="D4" t="n">
-        <v>794.0196728252577</v>
+        <v>654.1174985156322</v>
       </c>
       <c r="E4" t="n">
-        <v>624.2616690759949</v>
+        <v>484.3594947663694</v>
       </c>
       <c r="F4" t="n">
-        <v>447.554615037751</v>
+        <v>307.6524407281256</v>
       </c>
       <c r="G4" t="n">
-        <v>281.9633400635787</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H4" t="n">
         <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
         <v>139.9809016933184</v>
@@ -4500,7 +4500,7 @@
         <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O4" t="n">
         <v>2154.361157596754</v>
@@ -4515,25 +4515,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S4" t="n">
-        <v>2634.992026257106</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T4" t="n">
-        <v>2389.112579835562</v>
+        <v>2494.602160192524</v>
       </c>
       <c r="U4" t="n">
-        <v>2110.679579088667</v>
+        <v>2216.169159445629</v>
       </c>
       <c r="V4" t="n">
-        <v>1823.724070959097</v>
+        <v>1929.213651316059</v>
       </c>
       <c r="W4" t="n">
-        <v>1551.697666545389</v>
+        <v>1657.187246902351</v>
       </c>
       <c r="X4" t="n">
-        <v>1551.697666545389</v>
+        <v>1411.795492235764</v>
       </c>
       <c r="Y4" t="n">
-        <v>1324.277995859497</v>
+        <v>1184.375821549872</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1531.756031303049</v>
+        <v>923.0857461958889</v>
       </c>
       <c r="C5" t="n">
-        <v>1351.369965159541</v>
+        <v>923.0857461958889</v>
       </c>
       <c r="D5" t="n">
-        <v>915.4601803339856</v>
+        <v>487.1759613703334</v>
       </c>
       <c r="E5" t="n">
-        <v>481.6854354922808</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="F5" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G5" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
         <v>488.6559039815464</v>
@@ -4585,10 +4585,10 @@
         <v>1810.336013065103</v>
       </c>
       <c r="P5" t="n">
-        <v>2123.562040472834</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
         <v>2670.060826431428</v>
@@ -4597,22 +4597,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>2366.341725488304</v>
+        <v>2581.669358390799</v>
       </c>
       <c r="U5" t="n">
-        <v>2366.341725488304</v>
+        <v>2581.669358390799</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.341725488304</v>
+        <v>2581.669358390799</v>
       </c>
       <c r="W5" t="n">
-        <v>2366.341725488304</v>
+        <v>2176.813903801833</v>
       </c>
       <c r="X5" t="n">
-        <v>2366.341725488304</v>
+        <v>1757.671440381143</v>
       </c>
       <c r="Y5" t="n">
-        <v>1958.055601787957</v>
+        <v>1349.385316680797</v>
       </c>
     </row>
     <row r="6">
@@ -4640,7 +4640,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
         <v>79.46488968908616</v>
@@ -4649,19 +4649,19 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
         <v>1058.729261281022</v>
@@ -4716,13 +4716,13 @@
         <v>218.9924915028009</v>
       </c>
       <c r="G7" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H7" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I7" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
         <v>139.9809016933184</v>
@@ -4795,13 +4795,13 @@
         <v>775.368552737199</v>
       </c>
       <c r="G8" t="n">
-        <v>373.9707213604629</v>
+        <v>373.970721360463</v>
       </c>
       <c r="H8" t="n">
-        <v>84.84056680367918</v>
+        <v>84.84056680367921</v>
       </c>
       <c r="I8" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="J8" t="n">
         <v>519.6784648837371</v>
@@ -4810,40 +4810,40 @@
         <v>1354.028756841915</v>
       </c>
       <c r="L8" t="n">
-        <v>1354.028756841915</v>
+        <v>1866.200544178663</v>
       </c>
       <c r="M8" t="n">
-        <v>2398.773002548303</v>
+        <v>1866.200544178663</v>
       </c>
       <c r="N8" t="n">
-        <v>2398.773002548303</v>
+        <v>1866.200544178663</v>
       </c>
       <c r="O8" t="n">
-        <v>2677.226145995911</v>
+        <v>2846.38021074897</v>
       </c>
       <c r="P8" t="n">
-        <v>3505.536020829308</v>
+        <v>3674.690085582366</v>
       </c>
       <c r="Q8" t="n">
-        <v>4052.034806787903</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="R8" t="n">
         <v>4221.18887154096</v>
       </c>
       <c r="S8" t="n">
-        <v>4221.18887154096</v>
+        <v>4137.536997724797</v>
       </c>
       <c r="T8" t="n">
-        <v>4221.18887154096</v>
+        <v>4137.536997724797</v>
       </c>
       <c r="U8" t="n">
-        <v>4221.18887154096</v>
+        <v>4113.121083652223</v>
       </c>
       <c r="V8" t="n">
-        <v>4169.646597006738</v>
+        <v>3750.50413358605</v>
       </c>
       <c r="W8" t="n">
-        <v>3764.791142417772</v>
+        <v>3345.648678997083</v>
       </c>
       <c r="X8" t="n">
         <v>3345.648678997083</v>
@@ -4874,34 +4874,34 @@
         <v>211.5445193484229</v>
       </c>
       <c r="G9" t="n">
-        <v>126.1594296146067</v>
+        <v>126.1594296146068</v>
       </c>
       <c r="H9" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I9" t="n">
         <v>110.4874505912768</v>
       </c>
       <c r="J9" t="n">
-        <v>435.0457755574891</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="K9" t="n">
-        <v>1115.779295627866</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="L9" t="n">
-        <v>1115.779295627866</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="M9" t="n">
-        <v>1630.490760815288</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="N9" t="n">
-        <v>1630.490760815288</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="O9" t="n">
-        <v>1630.490760815288</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="P9" t="n">
-        <v>1630.490760815288</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="Q9" t="n">
         <v>1630.490760815288</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>934.9198145077505</v>
+        <v>793.9176148484312</v>
       </c>
       <c r="C10" t="n">
-        <v>762.3581029909755</v>
+        <v>621.3559033316561</v>
       </c>
       <c r="D10" t="n">
-        <v>596.4801101924982</v>
+        <v>455.4779105331788</v>
       </c>
       <c r="E10" t="n">
-        <v>426.7221064432354</v>
+        <v>285.7199067839161</v>
       </c>
       <c r="F10" t="n">
-        <v>250.0150524049915</v>
+        <v>109.0128527456723</v>
       </c>
       <c r="G10" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="H10" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I10" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="J10" t="n">
         <v>171.0034625955091</v>
@@ -4989,25 +4989,25 @@
         <v>2701.083387333619</v>
       </c>
       <c r="S10" t="n">
-        <v>2682.844218290934</v>
+        <v>2541.842018631615</v>
       </c>
       <c r="T10" t="n">
-        <v>2436.96477186939</v>
+        <v>2295.96257221007</v>
       </c>
       <c r="U10" t="n">
-        <v>2158.531771122495</v>
+        <v>2017.529571463176</v>
       </c>
       <c r="V10" t="n">
-        <v>1871.576262992925</v>
+        <v>1730.574063333606</v>
       </c>
       <c r="W10" t="n">
-        <v>1599.549858579217</v>
+        <v>1458.547658919898</v>
       </c>
       <c r="X10" t="n">
-        <v>1354.158103912629</v>
+        <v>1213.15590425331</v>
       </c>
       <c r="Y10" t="n">
-        <v>1126.738433226738</v>
+        <v>985.7362335674184</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1820.534998878308</v>
+        <v>2511.062984811828</v>
       </c>
       <c r="C11" t="n">
-        <v>1382.392526061732</v>
+        <v>2072.920511995252</v>
       </c>
       <c r="D11" t="n">
-        <v>946.4827412361763</v>
+        <v>1637.010727169696</v>
       </c>
       <c r="E11" t="n">
-        <v>512.7079963944715</v>
+        <v>1203.235982327991</v>
       </c>
       <c r="F11" t="n">
-        <v>84.84056680367918</v>
+        <v>775.368552737199</v>
       </c>
       <c r="G11" t="n">
-        <v>84.84056680367918</v>
+        <v>373.970721360463</v>
       </c>
       <c r="H11" t="n">
-        <v>84.84056680367918</v>
+        <v>84.84056680367921</v>
       </c>
       <c r="I11" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="J11" t="n">
         <v>519.6784648837371</v>
@@ -5047,22 +5047,22 @@
         <v>1354.028756841915</v>
       </c>
       <c r="L11" t="n">
-        <v>1697.046479425605</v>
+        <v>1866.200544178663</v>
       </c>
       <c r="M11" t="n">
-        <v>1697.046479425605</v>
+        <v>1866.200544178663</v>
       </c>
       <c r="N11" t="n">
-        <v>1697.046479425605</v>
+        <v>1866.200544178663</v>
       </c>
       <c r="O11" t="n">
-        <v>2677.226145995911</v>
+        <v>2846.38021074897</v>
       </c>
       <c r="P11" t="n">
-        <v>3505.536020829308</v>
+        <v>3674.690085582366</v>
       </c>
       <c r="Q11" t="n">
-        <v>4052.034806787903</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="R11" t="n">
         <v>4221.18887154096</v>
@@ -5071,22 +5071,22 @@
         <v>4221.18887154096</v>
       </c>
       <c r="T11" t="n">
-        <v>4100.957863822376</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="U11" t="n">
-        <v>3841.735561139392</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="V11" t="n">
-        <v>3479.118611073219</v>
+        <v>4169.646597006738</v>
       </c>
       <c r="W11" t="n">
-        <v>3074.263156484252</v>
+        <v>3764.791142417772</v>
       </c>
       <c r="X11" t="n">
-        <v>2655.120693063563</v>
+        <v>3345.648678997083</v>
       </c>
       <c r="Y11" t="n">
-        <v>2246.834569363216</v>
+        <v>2937.362555296736</v>
       </c>
     </row>
     <row r="12">
@@ -5111,37 +5111,37 @@
         <v>211.5445193484229</v>
       </c>
       <c r="G12" t="n">
-        <v>126.1594296146067</v>
+        <v>126.1594296146068</v>
       </c>
       <c r="H12" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I12" t="n">
-        <v>84.42377743081919</v>
+        <v>110.4874505912768</v>
       </c>
       <c r="J12" t="n">
-        <v>162.1803545711651</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="K12" t="n">
-        <v>162.1803545711651</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="L12" t="n">
-        <v>162.1803545711651</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="M12" t="n">
-        <v>1206.924600277553</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="N12" t="n">
-        <v>1206.924600277553</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="O12" t="n">
-        <v>1206.924600277553</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="P12" t="n">
-        <v>1206.924600277553</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="Q12" t="n">
-        <v>1747.663538909628</v>
+        <v>1630.490760815288</v>
       </c>
       <c r="R12" t="n">
         <v>1747.663538909628</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1163.481938042701</v>
+        <v>934.9198145077505</v>
       </c>
       <c r="C13" t="n">
-        <v>990.9202265259256</v>
+        <v>762.3581029909755</v>
       </c>
       <c r="D13" t="n">
-        <v>825.0422337274483</v>
+        <v>596.4801101924982</v>
       </c>
       <c r="E13" t="n">
-        <v>655.2842299781855</v>
+        <v>426.7221064432354</v>
       </c>
       <c r="F13" t="n">
-        <v>478.5771759399417</v>
+        <v>250.0150524049915</v>
       </c>
       <c r="G13" t="n">
-        <v>312.9859009657694</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="H13" t="n">
-        <v>173.0837266561439</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I13" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="J13" t="n">
         <v>171.0034625955091</v>
@@ -5226,25 +5226,25 @@
         <v>2701.083387333619</v>
       </c>
       <c r="S13" t="n">
-        <v>2701.083387333619</v>
+        <v>2682.844218290934</v>
       </c>
       <c r="T13" t="n">
-        <v>2455.203940912074</v>
+        <v>2436.96477186939</v>
       </c>
       <c r="U13" t="n">
-        <v>2387.093894657445</v>
+        <v>2158.531771122495</v>
       </c>
       <c r="V13" t="n">
-        <v>2100.138386527876</v>
+        <v>1871.576262992925</v>
       </c>
       <c r="W13" t="n">
-        <v>1828.111982114167</v>
+        <v>1599.549858579217</v>
       </c>
       <c r="X13" t="n">
-        <v>1582.72022744758</v>
+        <v>1354.158103912629</v>
       </c>
       <c r="Y13" t="n">
-        <v>1355.300556761688</v>
+        <v>1126.738433226738</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2511.062984811828</v>
+        <v>2109.665153435092</v>
       </c>
       <c r="C14" t="n">
-        <v>2072.920511995252</v>
+        <v>1671.522680618516</v>
       </c>
       <c r="D14" t="n">
-        <v>1637.010727169696</v>
+        <v>1235.61289579296</v>
       </c>
       <c r="E14" t="n">
-        <v>1203.235982327991</v>
+        <v>801.8381509512552</v>
       </c>
       <c r="F14" t="n">
-        <v>775.368552737199</v>
+        <v>373.970721360463</v>
       </c>
       <c r="G14" t="n">
-        <v>373.9707213604629</v>
+        <v>373.970721360463</v>
       </c>
       <c r="H14" t="n">
-        <v>84.84056680367918</v>
+        <v>84.84056680367921</v>
       </c>
       <c r="I14" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="J14" t="n">
         <v>519.6784648837371</v>
@@ -5284,7 +5284,7 @@
         <v>1354.028756841915</v>
       </c>
       <c r="L14" t="n">
-        <v>1354.028756841915</v>
+        <v>1866.200544178663</v>
       </c>
       <c r="M14" t="n">
         <v>1866.200544178663</v>
@@ -5293,10 +5293,10 @@
         <v>1866.200544178663</v>
       </c>
       <c r="O14" t="n">
-        <v>2846.380210748969</v>
+        <v>2846.38021074897</v>
       </c>
       <c r="P14" t="n">
-        <v>3674.690085582365</v>
+        <v>3674.690085582366</v>
       </c>
       <c r="Q14" t="n">
         <v>4221.18887154096</v>
@@ -5311,19 +5311,19 @@
         <v>4221.18887154096</v>
       </c>
       <c r="U14" t="n">
-        <v>4221.18887154096</v>
+        <v>3961.966568857977</v>
       </c>
       <c r="V14" t="n">
-        <v>4169.646597006738</v>
+        <v>3768.248765630003</v>
       </c>
       <c r="W14" t="n">
-        <v>3764.791142417772</v>
+        <v>3363.393311041036</v>
       </c>
       <c r="X14" t="n">
-        <v>3345.648678997083</v>
+        <v>2944.250847620347</v>
       </c>
       <c r="Y14" t="n">
-        <v>2937.362555296736</v>
+        <v>2535.96472392</v>
       </c>
     </row>
     <row r="15">
@@ -5348,37 +5348,37 @@
         <v>211.5445193484229</v>
       </c>
       <c r="G15" t="n">
-        <v>126.1594296146067</v>
+        <v>126.1594296146068</v>
       </c>
       <c r="H15" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I15" t="n">
-        <v>84.42377743081919</v>
+        <v>110.4874505912768</v>
       </c>
       <c r="J15" t="n">
-        <v>84.42377743081919</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="K15" t="n">
-        <v>84.42377743081919</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="L15" t="n">
-        <v>84.42377743081919</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="M15" t="n">
-        <v>1129.168023137207</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="N15" t="n">
-        <v>1747.663538909628</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="O15" t="n">
-        <v>1747.663538909628</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="P15" t="n">
-        <v>1747.663538909628</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="Q15" t="n">
-        <v>1747.663538909628</v>
+        <v>1630.490760815288</v>
       </c>
       <c r="R15" t="n">
         <v>1747.663538909628</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1163.481938042701</v>
+        <v>934.9198145077505</v>
       </c>
       <c r="C16" t="n">
-        <v>990.9202265259256</v>
+        <v>762.3581029909755</v>
       </c>
       <c r="D16" t="n">
-        <v>825.0422337274483</v>
+        <v>596.4801101924982</v>
       </c>
       <c r="E16" t="n">
-        <v>655.2842299781855</v>
+        <v>426.7221064432354</v>
       </c>
       <c r="F16" t="n">
-        <v>478.5771759399417</v>
+        <v>250.0150524049915</v>
       </c>
       <c r="G16" t="n">
-        <v>312.9859009657694</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="H16" t="n">
-        <v>173.0837266561439</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I16" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="J16" t="n">
         <v>171.0034625955091</v>
@@ -5463,25 +5463,25 @@
         <v>2701.083387333619</v>
       </c>
       <c r="S16" t="n">
-        <v>2701.083387333619</v>
+        <v>2682.844218290934</v>
       </c>
       <c r="T16" t="n">
-        <v>2455.203940912074</v>
+        <v>2436.96477186939</v>
       </c>
       <c r="U16" t="n">
-        <v>2387.093894657445</v>
+        <v>2158.531771122495</v>
       </c>
       <c r="V16" t="n">
-        <v>2100.138386527876</v>
+        <v>1871.576262992925</v>
       </c>
       <c r="W16" t="n">
-        <v>1828.111982114167</v>
+        <v>1599.549858579217</v>
       </c>
       <c r="X16" t="n">
-        <v>1582.72022744758</v>
+        <v>1354.158103912629</v>
       </c>
       <c r="Y16" t="n">
-        <v>1355.300556761688</v>
+        <v>1126.738433226738</v>
       </c>
     </row>
     <row r="17">
@@ -5491,46 +5491,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>382.0682546095395</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>1216.418546567717</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2291.478512820577</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2291.478512820577</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N17" t="n">
-        <v>3417.209496257024</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>4397.38916282733</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
@@ -5542,25 +5542,25 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5700,25 +5700,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2404.930957497405</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5740,28 +5740,28 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>1463.16863798718</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N20" t="n">
         <v>2588.899621423627</v>
@@ -5791,13 +5791,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5834,19 +5834,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
         <v>1107.588885023173</v>
@@ -5977,40 +5977,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6028,13 +6028,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C24" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D24" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E24" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F24" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G24" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H24" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S24" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T24" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U24" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V24" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W24" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X24" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y24" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="25">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G25" t="n">
         <v>102.2608402707796</v>
@@ -6174,25 +6174,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="26">
@@ -6214,40 +6214,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6308,19 +6308,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3365.117609755799</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C28" t="n">
-        <v>3192.555898239023</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D28" t="n">
-        <v>3026.677905440546</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E28" t="n">
-        <v>2856.919901691283</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F28" t="n">
-        <v>2680.21284765304</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G28" t="n">
-        <v>2514.621572678867</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H28" t="n">
-        <v>2496.382403636182</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="I28" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J28" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K28" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L28" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M28" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N28" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O28" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P28" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q28" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T28" t="n">
-        <v>4867.162567117437</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U28" t="n">
-        <v>4588.729566370543</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V28" t="n">
-        <v>4301.774058240973</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W28" t="n">
-        <v>4029.747653827265</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X28" t="n">
-        <v>3784.355899160677</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y28" t="n">
-        <v>3556.936228474786</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="29">
@@ -6451,13 +6451,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6539,22 +6539,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L30" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
         <v>1107.588885023173</v>
@@ -6688,13 +6688,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6709,7 +6709,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N32" t="n">
         <v>2588.899621423627</v>
@@ -6739,13 +6739,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6776,25 +6776,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L33" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M33" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N33" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O33" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P33" t="n">
         <v>1107.588885023173</v>
@@ -6925,40 +6925,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2627364873778</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1632.322702740237</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>1632.322702740237</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N35" t="n">
-        <v>2758.053686176684</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -6976,13 +6976,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7083,13 +7083,13 @@
         <v>462.7983383258798</v>
       </c>
       <c r="F37" t="n">
-        <v>462.7983383258798</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057298</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7162,40 +7162,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2011.671098481817</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N38" t="n">
-        <v>2758.053686176684</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
         <v>5113.04201353898</v>
@@ -7256,19 +7256,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P39" t="n">
         <v>1107.588885023173</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1057.634124109936</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>885.0724125931612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>719.1944197946839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>549.4364160454211</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>372.7293620071773</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>207.138087033005</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
         <v>102.2608402707796</v>
@@ -7359,25 +7359,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2559.679081471576</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2281.246080724681</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1994.290572595111</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1722.264168181403</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1476.872413514815</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1249.452742828923</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2221.516040882185</v>
+        <v>2199.988309279877</v>
       </c>
       <c r="C41" t="n">
-        <v>1783.373568065608</v>
+        <v>1761.8458364633</v>
       </c>
       <c r="D41" t="n">
-        <v>1347.463783240052</v>
+        <v>1325.936051637745</v>
       </c>
       <c r="E41" t="n">
-        <v>913.6890383983475</v>
+        <v>892.1613067960398</v>
       </c>
       <c r="F41" t="n">
         <v>485.8216088075553</v>
       </c>
       <c r="G41" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="H41" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I41" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="J41" t="n">
         <v>519.6784648837371</v>
@@ -7426,10 +7426,10 @@
         <v>1866.200544178663</v>
       </c>
       <c r="O41" t="n">
-        <v>2846.380210748969</v>
+        <v>2846.38021074897</v>
       </c>
       <c r="P41" t="n">
-        <v>3674.690085582365</v>
+        <v>3674.690085582366</v>
       </c>
       <c r="Q41" t="n">
         <v>4221.18887154096</v>
@@ -7447,16 +7447,16 @@
         <v>4221.18887154096</v>
       </c>
       <c r="V41" t="n">
-        <v>3880.099653077095</v>
+        <v>3858.571921474787</v>
       </c>
       <c r="W41" t="n">
-        <v>3475.244198488128</v>
+        <v>3453.71646688582</v>
       </c>
       <c r="X41" t="n">
-        <v>3056.101735067439</v>
+        <v>3034.574003465131</v>
       </c>
       <c r="Y41" t="n">
-        <v>2647.815611367093</v>
+        <v>2626.287879764785</v>
       </c>
     </row>
     <row r="42">
@@ -7481,31 +7481,31 @@
         <v>211.5445193484229</v>
       </c>
       <c r="G42" t="n">
-        <v>126.1594296146067</v>
+        <v>126.1594296146068</v>
       </c>
       <c r="H42" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I42" t="n">
         <v>110.4874505912768</v>
       </c>
       <c r="J42" t="n">
-        <v>435.0457755574891</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="K42" t="n">
-        <v>1089.751822183213</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="L42" t="n">
-        <v>1089.751822183213</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="M42" t="n">
-        <v>1089.751822183213</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="N42" t="n">
-        <v>1089.751822183213</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="O42" t="n">
-        <v>1089.751822183213</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="P42" t="n">
         <v>1089.751822183213</v>
@@ -7560,13 +7560,13 @@
         <v>250.0150524049915</v>
       </c>
       <c r="G43" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="H43" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I43" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="J43" t="n">
         <v>171.0034625955091</v>
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2199.988309279876</v>
+        <v>2511.062984811828</v>
       </c>
       <c r="C44" t="n">
-        <v>1761.845836463299</v>
+        <v>2072.920511995252</v>
       </c>
       <c r="D44" t="n">
-        <v>1325.936051637744</v>
+        <v>1637.010727169696</v>
       </c>
       <c r="E44" t="n">
-        <v>892.1613067960388</v>
+        <v>1203.235982327991</v>
       </c>
       <c r="F44" t="n">
-        <v>464.2938772052466</v>
+        <v>775.368552737199</v>
       </c>
       <c r="G44" t="n">
-        <v>84.84056680367918</v>
+        <v>373.970721360463</v>
       </c>
       <c r="H44" t="n">
-        <v>84.84056680367918</v>
+        <v>84.84056680367921</v>
       </c>
       <c r="I44" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="J44" t="n">
         <v>519.6784648837371</v>
@@ -7663,10 +7663,10 @@
         <v>1866.200544178663</v>
       </c>
       <c r="O44" t="n">
-        <v>2846.380210748969</v>
+        <v>2846.38021074897</v>
       </c>
       <c r="P44" t="n">
-        <v>3674.690085582365</v>
+        <v>3674.690085582366</v>
       </c>
       <c r="Q44" t="n">
         <v>4221.18887154096</v>
@@ -7678,22 +7678,22 @@
         <v>4221.18887154096</v>
       </c>
       <c r="T44" t="n">
-        <v>4221.18887154096</v>
+        <v>4169.646597006738</v>
       </c>
       <c r="U44" t="n">
-        <v>4221.18887154096</v>
+        <v>4169.646597006738</v>
       </c>
       <c r="V44" t="n">
-        <v>3858.571921474786</v>
+        <v>4169.646597006738</v>
       </c>
       <c r="W44" t="n">
-        <v>3453.71646688582</v>
+        <v>3764.791142417772</v>
       </c>
       <c r="X44" t="n">
-        <v>3034.57400346513</v>
+        <v>3345.648678997083</v>
       </c>
       <c r="Y44" t="n">
-        <v>2626.287879764784</v>
+        <v>2937.362555296736</v>
       </c>
     </row>
     <row r="45">
@@ -7718,31 +7718,31 @@
         <v>211.5445193484229</v>
       </c>
       <c r="G45" t="n">
-        <v>126.1594296146067</v>
+        <v>126.1594296146068</v>
       </c>
       <c r="H45" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I45" t="n">
         <v>110.4874505912768</v>
       </c>
       <c r="J45" t="n">
-        <v>435.0457755574891</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="K45" t="n">
-        <v>1089.751822183213</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="L45" t="n">
-        <v>1089.751822183213</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="M45" t="n">
-        <v>1089.751822183213</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="N45" t="n">
-        <v>1089.751822183213</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="O45" t="n">
-        <v>1089.751822183213</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="P45" t="n">
         <v>1089.751822183213</v>
@@ -7797,13 +7797,13 @@
         <v>250.0150524049915</v>
       </c>
       <c r="G46" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="H46" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I46" t="n">
-        <v>84.42377743081919</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="J46" t="n">
         <v>171.0034625955091</v>
@@ -7978,13 +7978,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7993,16 +7993,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.5152066078572</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P2" t="n">
-        <v>88.52591951400973</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,13 +8054,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>667.5152066078571</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>345.0097498941939</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8230,16 +8230,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>316.3899266744752</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8458,16 +8458,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>517.3452397340893</v>
       </c>
       <c r="M8" t="n">
-        <v>1055.29721788524</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>281.2658014622311</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P8" t="n">
         <v>836.6766412458549</v>
@@ -8476,7 +8476,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8534,13 +8534,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>519.9105708963859</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8552,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8695,7 +8695,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>346.4825480643335</v>
+        <v>517.3452397340893</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8713,7 +8713,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,19 +8765,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>78.54199711146055</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1055.29721788524</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8932,10 +8932,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>517.3452397340893</v>
       </c>
       <c r="M14" t="n">
-        <v>517.3452397340884</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -9002,22 +9002,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1055.29721788524</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>624.7429452246683</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>282.6337518573332</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
@@ -9172,16 +9172,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157522</v>
@@ -9239,16 +9239,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9257,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,19 +9400,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>531.8762684426488</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9482,7 +9482,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9956,22 +9956,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10187,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
@@ -10196,7 +10196,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10205,7 +10205,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>687.6461816022032</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -10357,10 +10357,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>687.6461816022032</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -10585,19 +10585,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>459.5978749662608</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10609,7 +10609,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
@@ -10831,10 +10831,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
-        <v>753.9218057523913</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10846,7 +10846,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,22 +10904,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11065,7 +11065,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>517.3452397340884</v>
+        <v>517.3452397340893</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11141,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11302,7 +11302,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>517.3452397340884</v>
+        <v>517.3452397340893</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -22546,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>369.0353499799959</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22564,10 +22564,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>30.11680866212356</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22603,19 +22603,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22722,7 +22722,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22755,10 +22755,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>122.9308428424046</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>69.71657238081409</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -22770,7 +22770,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -22786,7 +22786,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>255.1788426063377</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -22795,7 +22795,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -22804,7 +22804,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22837,7 +22837,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>213.1743565734707</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
@@ -22846,10 +22846,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22992,7 +22992,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>139.5921776627262</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23071,22 +23071,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>232.4583247243048</v>
       </c>
       <c r="V8" t="n">
-        <v>307.9639287766328</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23193,7 +23193,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -23229,7 +23229,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -23272,10 +23272,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23311,13 +23311,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>98.83785721429371</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>307.9639287766319</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23509,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23551,10 +23551,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>307.9639287766328</v>
+        <v>167.2101553698171</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,13 +23703,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24378,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
@@ -24414,7 +24414,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>120.4463752142708</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>69.71657238081424</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -25323,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>33.27974144948209</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>34.67467827192613</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25599,10 +25599,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25639,7 +25639,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>21.31245428628478</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25687,7 +25687,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>21.3124542862862</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25879,10 +25879,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>21.72507576541699</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25918,13 +25918,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>166.8397030668119</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>607058.1199221446</v>
+        <v>607058.1199221448</v>
       </c>
     </row>
     <row r="6">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>698353.732558268</v>
+        <v>698353.7325582681</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>607058.1199221446</v>
+        <v>607058.1199221447</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>607058.1199221447</v>
+        <v>607058.1199221448</v>
       </c>
     </row>
   </sheetData>
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>152186.0528060573</v>
+      </c>
+      <c r="C2" t="n">
         <v>152186.0528060574</v>
-      </c>
-      <c r="C2" t="n">
-        <v>152186.0528060573</v>
       </c>
       <c r="D2" t="n">
         <v>206091.7294659212</v>
       </c>
       <c r="E2" t="n">
-        <v>206091.7294659212</v>
+        <v>206091.7294659213</v>
       </c>
       <c r="F2" t="n">
         <v>206091.7294659213</v>
@@ -26337,7 +26337,7 @@
         <v>237085.9128618085</v>
       </c>
       <c r="J2" t="n">
-        <v>237085.9128618086</v>
+        <v>237085.9128618085</v>
       </c>
       <c r="K2" t="n">
         <v>237085.9128618085</v>
@@ -26349,13 +26349,13 @@
         <v>237085.9128618085</v>
       </c>
       <c r="N2" t="n">
-        <v>237085.9128618086</v>
+        <v>237085.9128618085</v>
       </c>
       <c r="O2" t="n">
-        <v>206091.7294659212</v>
+        <v>206091.7294659213</v>
       </c>
       <c r="P2" t="n">
-        <v>206091.7294659212</v>
+        <v>206091.7294659213</v>
       </c>
     </row>
     <row r="3">
@@ -26365,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223699.6985840449</v>
+        <v>223699.6985840448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>120456.7261630934</v>
+        <v>120456.7261630936</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>61110.89210613196</v>
+        <v>61110.8921061319</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>174651.3487177062</v>
+        <v>174651.3487177061</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>98144.13701620408</v>
+        <v>98144.13701620419</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>9144.033827297713</v>
       </c>
       <c r="C4" t="n">
-        <v>9144.033827297715</v>
+        <v>9144.033827297713</v>
       </c>
       <c r="D4" t="n">
         <v>12382.93333071889</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="C5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
         <v>97789.67084742259</v>
       </c>
       <c r="E5" t="n">
-        <v>64162.07084742258</v>
+        <v>64162.0708474226</v>
       </c>
       <c r="F5" t="n">
-        <v>64162.07084742258</v>
+        <v>64162.0708474226</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26508,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>64162.07084742258</v>
+        <v>64162.0708474226</v>
       </c>
       <c r="P5" t="n">
-        <v>64162.07084742258</v>
+        <v>64162.0708474226</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-154870.2041670429</v>
+        <v>-155365.0943956242</v>
       </c>
       <c r="C6" t="n">
-        <v>68829.4944170019</v>
+        <v>68334.60418842069</v>
       </c>
       <c r="D6" t="n">
-        <v>-24537.60087531368</v>
+        <v>-24733.0151224514</v>
       </c>
       <c r="E6" t="n">
-        <v>129546.7252877798</v>
+        <v>129351.3110406422</v>
       </c>
       <c r="F6" t="n">
-        <v>129546.7252877798</v>
+        <v>129351.3110406422</v>
       </c>
       <c r="G6" t="n">
-        <v>84011.57657939146</v>
+        <v>83988.35224000888</v>
       </c>
       <c r="H6" t="n">
-        <v>145122.4686855234</v>
+        <v>145099.2443461407</v>
       </c>
       <c r="I6" t="n">
-        <v>145122.4686855234</v>
+        <v>145099.2443461407</v>
       </c>
       <c r="J6" t="n">
-        <v>-29528.88003218277</v>
+        <v>-29552.10437156541</v>
       </c>
       <c r="K6" t="n">
-        <v>145122.4686855234</v>
+        <v>145099.2443461407</v>
       </c>
       <c r="L6" t="n">
-        <v>46978.33166931928</v>
+        <v>46955.10732993653</v>
       </c>
       <c r="M6" t="n">
-        <v>145122.4686855234</v>
+        <v>145099.2443461407</v>
       </c>
       <c r="N6" t="n">
-        <v>145122.4686855234</v>
+        <v>145099.2443461407</v>
       </c>
       <c r="O6" t="n">
-        <v>129546.7252877797</v>
+        <v>129351.3110406422</v>
       </c>
       <c r="P6" t="n">
-        <v>129546.7252877798</v>
+        <v>129351.3110406422</v>
       </c>
     </row>
   </sheetData>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
         <v>1055.29721788524</v>
@@ -27011,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>387.7820112773829</v>
+        <v>387.7820112773832</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>222.9632854995054</v>
+        <v>222.9632854995052</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,13 +27035,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>387.7820112773828</v>
+        <v>387.7820112773832</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27257,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>387.7820112773829</v>
+        <v>387.7820112773832</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>222.9632854995054</v>
+        <v>222.9632854995052</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34698,13 +34698,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34713,16 +34713,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.5152066078572</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P2" t="n">
-        <v>88.52591951400973</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,13 +34774,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>667.5152066078571</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34795,13 +34795,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>345.0097498941939</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34865,19 +34865,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512941</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821543</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34950,16 +34950,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>316.3899266744752</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35032,7 +35032,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -35108,7 +35108,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512941</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
         <v>351.017064616507</v>
@@ -35178,25 +35178,25 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>517.3452397340893</v>
       </c>
       <c r="M8" t="n">
-        <v>1055.29721788524</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>281.2658014622311</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P8" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,13 +35254,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>519.9105708963859</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35272,7 +35272,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35330,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35415,7 +35415,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>346.4825480643335</v>
+        <v>517.3452397340893</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -35427,13 +35427,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,19 +35485,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>78.54199711146055</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1055.29721788524</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35512,7 +35512,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35652,10 +35652,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>517.3452397340893</v>
       </c>
       <c r="M14" t="n">
-        <v>517.3452397340884</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -35722,22 +35722,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1055.29721788524</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>624.7429452246683</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35746,10 +35746,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35883,25 +35883,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>282.6337518573332</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35977,16 +35977,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
-        <v>531.8762684426488</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36202,7 +36202,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36217,7 +36217,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
         <v>661.3192390158824</v>
@@ -36457,7 +36457,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,22 +36676,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36752,13 +36752,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
         <v>464.1251183645586</v>
@@ -36767,13 +36767,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
@@ -36916,7 +36916,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36925,7 +36925,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>687.6461816022032</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37077,10 +37077,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
@@ -37165,7 +37165,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>687.6461816022032</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -37305,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>459.5978749662608</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37329,7 +37329,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37542,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
-        <v>753.9218057523913</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37566,7 +37566,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,22 +37624,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37785,7 +37785,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>517.3452397340884</v>
+        <v>517.3452397340893</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37876,7 +37876,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -38022,7 +38022,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>517.3452397340884</v>
+        <v>517.3452397340893</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38113,7 +38113,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
